--- a/Code/Results/Cases/Case_5_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,844 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.06421209524371</v>
+        <v>21.25894035411683</v>
       </c>
       <c r="C2">
-        <v>14.67073393004467</v>
+        <v>12.99176045370407</v>
       </c>
       <c r="D2">
-        <v>6.89513770241498</v>
+        <v>10.54432614371758</v>
       </c>
       <c r="E2">
-        <v>15.69769413853295</v>
+        <v>7.245365470490089</v>
       </c>
       <c r="F2">
-        <v>63.30183787243039</v>
+        <v>64.12445203638106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.65613304066455</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>18.61612686581601</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.175790983413262</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.53917535502075</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.47049652121922</v>
+        <v>19.72362133337166</v>
       </c>
       <c r="C3">
-        <v>13.55842233855293</v>
+        <v>12.09670320904037</v>
       </c>
       <c r="D3">
-        <v>6.607683832233373</v>
+        <v>10.13612643714211</v>
       </c>
       <c r="E3">
-        <v>14.50644003050139</v>
+        <v>7.169722176054011</v>
       </c>
       <c r="F3">
-        <v>59.36045989423589</v>
+        <v>60.52158191526605</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.66511617628699</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>17.22666272807023</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.109759934385851</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.05479119475918</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.45187245292106</v>
+        <v>18.86076070429341</v>
       </c>
       <c r="C4">
-        <v>12.84908747615663</v>
+        <v>11.52635110431734</v>
       </c>
       <c r="D4">
-        <v>6.430031732887263</v>
+        <v>9.883851572180886</v>
       </c>
       <c r="E4">
-        <v>13.74672172910363</v>
+        <v>7.123766024032417</v>
       </c>
       <c r="F4">
-        <v>56.8807146788585</v>
+        <v>58.2607551941408</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.11756774979775</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>16.3383698025558</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.072943908010078</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.76335605890053</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.02631056220264</v>
+        <v>18.50459605630788</v>
       </c>
       <c r="C5">
-        <v>12.55305863939496</v>
+        <v>11.28849216677805</v>
       </c>
       <c r="D5">
-        <v>6.357289035741173</v>
+        <v>9.780620310630145</v>
       </c>
       <c r="E5">
-        <v>13.42966116891732</v>
+        <v>7.105107124820487</v>
       </c>
       <c r="F5">
-        <v>55.85504113965644</v>
+        <v>57.32740430032644</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.89167665829156</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.96716831230676</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.058845347988662</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.64616332446434</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.95500396873971</v>
+        <v>18.44518697112515</v>
       </c>
       <c r="C6">
-        <v>12.50347317862742</v>
+        <v>11.24866201128611</v>
       </c>
       <c r="D6">
-        <v>6.345187764183321</v>
+        <v>9.763452929519847</v>
       </c>
       <c r="E6">
-        <v>13.3765526923144</v>
+        <v>7.10201150163299</v>
       </c>
       <c r="F6">
-        <v>55.68381460811781</v>
+        <v>57.17170442742437</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.8540013640595</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>15.90496382740447</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.056557977058717</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.62680068014773</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.44617602081384</v>
+        <v>18.85597547435524</v>
       </c>
       <c r="C7">
-        <v>12.84512376536601</v>
+        <v>11.52316552012703</v>
       </c>
       <c r="D7">
-        <v>6.429052173177559</v>
+        <v>9.88246109620775</v>
       </c>
       <c r="E7">
-        <v>13.74247642534104</v>
+        <v>7.123514173101896</v>
       </c>
       <c r="F7">
-        <v>56.86694344171035</v>
+        <v>58.24821605708856</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.11453246972884</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>16.33340142681175</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.072750150829425</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.76176909930195</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.52276719834311</v>
+        <v>20.72677228771868</v>
       </c>
       <c r="C8">
-        <v>14.29246632102538</v>
+        <v>12.68732215173499</v>
       </c>
       <c r="D8">
-        <v>6.796222976369676</v>
+        <v>10.40390391113611</v>
       </c>
       <c r="E8">
-        <v>15.29259164838547</v>
+        <v>7.219147293932125</v>
       </c>
       <c r="F8">
-        <v>61.95507483369407</v>
+        <v>62.89232066642412</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.30713639760873</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>18.14409748119325</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.152229365961208</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.37095104883414</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.29757434054421</v>
+        <v>24.44290489763844</v>
       </c>
       <c r="C9">
-        <v>16.9391083009866</v>
+        <v>14.81660584420578</v>
       </c>
       <c r="D9">
-        <v>7.510742747637174</v>
+        <v>11.41528369924998</v>
       </c>
       <c r="E9">
-        <v>18.12663621593052</v>
+        <v>7.413419664753532</v>
       </c>
       <c r="F9">
-        <v>71.48105927389072</v>
+        <v>71.61786206572445</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>15.74483106411482</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>21.43538891030498</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.339289337254156</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.81451578522656</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.92437302279577</v>
+        <v>27.02783258550895</v>
       </c>
       <c r="C10">
-        <v>18.79623848579881</v>
+        <v>16.30631534443784</v>
       </c>
       <c r="D10">
-        <v>8.039424949972474</v>
+        <v>12.15612224180585</v>
       </c>
       <c r="E10">
-        <v>20.11465073701358</v>
+        <v>7.56501683982676</v>
       </c>
       <c r="F10">
-        <v>78.26016250382138</v>
+        <v>77.82184008227442</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>17.44876278285681</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>23.72761790672009</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.498323579633611</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15.25101836080333</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.0975410735213</v>
+        <v>28.17901339239237</v>
       </c>
       <c r="C11">
-        <v>19.63055583537779</v>
+        <v>16.97317745366814</v>
       </c>
       <c r="D11">
-        <v>8.283041780013042</v>
+        <v>12.49436764326047</v>
       </c>
       <c r="E11">
-        <v>21.00758672114115</v>
+        <v>7.637257557978358</v>
       </c>
       <c r="F11">
-        <v>81.31699487987763</v>
+        <v>80.61099556091158</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>18.21221317014646</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>24.75226060403664</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.576061221172298</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.88742534080989</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.53972637275148</v>
+        <v>28.61211387160721</v>
       </c>
       <c r="C12">
-        <v>19.94588308198048</v>
+        <v>17.22470598963707</v>
       </c>
       <c r="D12">
-        <v>8.376003482924043</v>
+        <v>12.62283095212062</v>
       </c>
       <c r="E12">
-        <v>21.34504117789299</v>
+        <v>7.665227112858654</v>
       </c>
       <c r="F12">
-        <v>82.47307742591281</v>
+        <v>81.66385696667641</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>18.50040251252088</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>25.1386406805006</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.606345587334005</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.12637397106737</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.44456620412566</v>
+        <v>28.51895031366248</v>
       </c>
       <c r="C13">
-        <v>19.87798225113607</v>
+        <v>17.17056907320629</v>
       </c>
       <c r="D13">
-        <v>8.355946025084467</v>
+        <v>12.59514350605661</v>
       </c>
       <c r="E13">
-        <v>21.27237680588679</v>
+        <v>7.65917348609102</v>
       </c>
       <c r="F13">
-        <v>82.22411388354871</v>
+        <v>81.43722530511982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18.43836220786426</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>25.05548136078269</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.599784348684092</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.07499570993451</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.13395439160623</v>
+        <v>28.21469673406473</v>
       </c>
       <c r="C14">
-        <v>19.65650432598312</v>
+        <v>16.99388725003609</v>
       </c>
       <c r="D14">
-        <v>8.290673824680569</v>
+        <v>12.50492748972234</v>
       </c>
       <c r="E14">
-        <v>21.03535662254365</v>
+        <v>7.639545410061331</v>
       </c>
       <c r="F14">
-        <v>81.41211969289324</v>
+        <v>80.69767218597171</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18.23593593724594</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>24.78407460970149</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.578535301317125</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.90712215357815</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.94346213175756</v>
+        <v>28.02798885432619</v>
       </c>
       <c r="C15">
-        <v>19.52079345747496</v>
+        <v>16.88555309107456</v>
       </c>
       <c r="D15">
-        <v>8.250794066941925</v>
+        <v>12.44972358863862</v>
       </c>
       <c r="E15">
-        <v>20.89011864598055</v>
+        <v>7.627607286451246</v>
       </c>
       <c r="F15">
-        <v>80.91464138697307</v>
+        <v>80.24429022369553</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18.11185093752627</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>24.61765057842917</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.565632293919123</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.80404188971472</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.84735107027312</v>
+        <v>26.95216148056569</v>
       </c>
       <c r="C16">
-        <v>18.74157487702806</v>
+        <v>16.26256187226256</v>
       </c>
       <c r="D16">
-        <v>8.023587477518825</v>
+        <v>12.13405774545723</v>
       </c>
       <c r="E16">
-        <v>20.05614265086159</v>
+        <v>7.560373193191058</v>
       </c>
       <c r="F16">
-        <v>78.06003847053302</v>
+        <v>77.63900910421418</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>17.39869613580957</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>23.66036913984343</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.493357532584176</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15.2091175671611</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.17002967582591</v>
+        <v>26.2863152339289</v>
       </c>
       <c r="C17">
-        <v>18.26143852199629</v>
+        <v>15.87797002271655</v>
       </c>
       <c r="D17">
-        <v>7.885166469981922</v>
+        <v>11.94084801873082</v>
       </c>
       <c r="E17">
-        <v>19.54221753333622</v>
+        <v>7.520059106900283</v>
       </c>
       <c r="F17">
-        <v>76.30342155657466</v>
+        <v>76.03316940377545</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>16.9587009465166</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>23.06909848991787</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.450446908963435</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.84004847074636</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.77832692189687</v>
+        <v>25.90095969598303</v>
       </c>
       <c r="C18">
-        <v>17.98422431703634</v>
+        <v>15.65570590306029</v>
       </c>
       <c r="D18">
-        <v>7.805824497540638</v>
+        <v>11.82982010375577</v>
       </c>
       <c r="E18">
-        <v>19.24547766025249</v>
+        <v>7.497170051292043</v>
       </c>
       <c r="F18">
-        <v>75.29033903997863</v>
+        <v>75.10631238532586</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>16.70447364982337</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>22.72724203366665</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.426268392885863</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.62613507046249</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.64530941456021</v>
+        <v>25.77005678704209</v>
       </c>
       <c r="C19">
-        <v>17.89015938881063</v>
+        <v>15.58025431298237</v>
       </c>
       <c r="D19">
-        <v>7.779000897279833</v>
+        <v>11.7922401498139</v>
       </c>
       <c r="E19">
-        <v>19.14478437402754</v>
+        <v>7.489467620759804</v>
       </c>
       <c r="F19">
-        <v>74.94679632812255</v>
+        <v>74.79190468231801</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>16.61817788771263</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>22.61116450354561</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.418166321431968</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.55341563125826</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.24234471513199</v>
+        <v>26.35743708725292</v>
       </c>
       <c r="C20">
-        <v>18.31265291136753</v>
+        <v>15.91901619607931</v>
       </c>
       <c r="D20">
-        <v>7.899871580180997</v>
+        <v>11.96140378004852</v>
       </c>
       <c r="E20">
-        <v>19.59703784326202</v>
+        <v>7.524318776028013</v>
       </c>
       <c r="F20">
-        <v>76.49068291704305</v>
+        <v>76.20443809669374</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>17.00565358578974</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>23.13221741219568</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.454962334493411</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.8795029538658</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.22523502297267</v>
+        <v>28.30413349524627</v>
       </c>
       <c r="C21">
-        <v>19.7215661087662</v>
+        <v>17.04580504721367</v>
       </c>
       <c r="D21">
-        <v>8.309824159108882</v>
+        <v>12.53141400776487</v>
       </c>
       <c r="E21">
-        <v>21.10498487072129</v>
+        <v>7.645292714863766</v>
       </c>
       <c r="F21">
-        <v>81.65063933832705</v>
+        <v>80.91497380057791</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>18.29541120208406</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>24.86382870520019</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.584753037090888</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.95648254138846</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.50980358936105</v>
+        <v>29.5603982434374</v>
       </c>
       <c r="C22">
-        <v>20.63939784752359</v>
+        <v>17.77675906856173</v>
       </c>
       <c r="D22">
-        <v>8.582064280144674</v>
+        <v>12.90628359594725</v>
       </c>
       <c r="E22">
-        <v>22.08717358237982</v>
+        <v>7.728022228385853</v>
       </c>
       <c r="F22">
-        <v>85.01604628749584</v>
+        <v>83.97514932982575</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19.13352062322086</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>25.98666596635508</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.674559242722427</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.64868119242221</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.82482473618296</v>
+        <v>28.89108664043145</v>
       </c>
       <c r="C23">
-        <v>20.14944975897428</v>
+        <v>17.38691974255809</v>
       </c>
       <c r="D23">
-        <v>8.43626362251614</v>
+        <v>12.70591330451501</v>
       </c>
       <c r="E23">
-        <v>21.56288509665723</v>
+        <v>7.683477102097634</v>
       </c>
       <c r="F23">
-        <v>83.21950807440747</v>
+        <v>82.34297630696959</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>18.68634346112746</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>25.38781398280207</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.626144607668293</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.28015326323034</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.20965833189715</v>
+        <v>26.32529089800082</v>
       </c>
       <c r="C24">
-        <v>18.28950261830087</v>
+        <v>15.90046286589746</v>
       </c>
       <c r="D24">
-        <v>7.893222676917647</v>
+        <v>11.95211037601864</v>
       </c>
       <c r="E24">
-        <v>19.57225762960874</v>
+        <v>7.522392092724458</v>
       </c>
       <c r="F24">
-        <v>76.40603213360933</v>
+        <v>76.1270189552317</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>16.9844303030982</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>23.10368742026013</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.452919385286125</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.8616710025371</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.30501648085447</v>
+        <v>23.46503091183208</v>
       </c>
       <c r="C25">
-        <v>16.24090321382203</v>
+        <v>14.25526459595791</v>
       </c>
       <c r="D25">
-        <v>7.317421515922924</v>
+        <v>11.14251318515684</v>
       </c>
       <c r="E25">
-        <v>17.37908270900013</v>
+        <v>7.359700810140205</v>
       </c>
       <c r="F25">
-        <v>68.94800342535432</v>
+        <v>69.29655993848745</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>15.10273749865874</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>20.56978232168795</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.285098480322852</v>
       </c>
       <c r="M25">
+        <v>13.27109286680504</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.25894035411683</v>
+        <v>12.48023438583529</v>
       </c>
       <c r="C2">
-        <v>12.99176045370407</v>
+        <v>6.643798747138545</v>
       </c>
       <c r="D2">
-        <v>10.54432614371758</v>
+        <v>6.266519155360443</v>
       </c>
       <c r="E2">
-        <v>7.245365470490089</v>
+        <v>9.164667568727596</v>
       </c>
       <c r="F2">
-        <v>64.12445203638106</v>
+        <v>25.16767714779248</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.139945373440611</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.01623659011826</v>
       </c>
       <c r="L2">
-        <v>6.175790983413262</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.53917535502075</v>
+        <v>10.9019036411938</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>18.42402929797667</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.72362133337166</v>
+        <v>11.66334240579975</v>
       </c>
       <c r="C3">
-        <v>12.09670320904037</v>
+        <v>6.362172229332804</v>
       </c>
       <c r="D3">
-        <v>10.13612643714211</v>
+        <v>6.007161498835079</v>
       </c>
       <c r="E3">
-        <v>7.169722176054011</v>
+        <v>8.954530643414952</v>
       </c>
       <c r="F3">
-        <v>60.52158191526605</v>
+        <v>24.96919026071969</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.148531247370332</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.39299231659394</v>
       </c>
       <c r="L3">
-        <v>6.109759934385851</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.05479119475918</v>
+        <v>10.44264825162877</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>18.45780495396257</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.86076070429341</v>
+        <v>11.13270544821362</v>
       </c>
       <c r="C4">
-        <v>11.52635110431734</v>
+        <v>6.182580597127243</v>
       </c>
       <c r="D4">
-        <v>9.883851572180886</v>
+        <v>5.844535169207234</v>
       </c>
       <c r="E4">
-        <v>7.123766024032417</v>
+        <v>8.827833267890169</v>
       </c>
       <c r="F4">
-        <v>58.2607551941408</v>
+        <v>24.86644736257046</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.156364042249101</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.99069144694643</v>
       </c>
       <c r="L4">
-        <v>6.072943908010078</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.76335605890053</v>
+        <v>10.15440192382216</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>18.49253157694483</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.50459605630788</v>
+        <v>10.90913043300521</v>
       </c>
       <c r="C5">
-        <v>11.28849216677805</v>
+        <v>6.107776699909841</v>
       </c>
       <c r="D5">
-        <v>9.780620310630145</v>
+        <v>5.777509815281047</v>
       </c>
       <c r="E5">
-        <v>7.105107124820487</v>
+        <v>8.776846189478093</v>
       </c>
       <c r="F5">
-        <v>57.32740430032644</v>
+        <v>24.82927965099244</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.160185748661833</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.821864110250448</v>
       </c>
       <c r="L5">
-        <v>6.058845347988662</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.64616332446434</v>
+        <v>10.03553073028193</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>18.51006833114027</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.44518697112515</v>
+        <v>10.87156215112755</v>
       </c>
       <c r="C6">
-        <v>11.24866201128611</v>
+        <v>6.095259704244119</v>
       </c>
       <c r="D6">
-        <v>9.763452929519847</v>
+        <v>5.766337810164397</v>
       </c>
       <c r="E6">
-        <v>7.10201150163299</v>
+        <v>8.768420355813415</v>
       </c>
       <c r="F6">
-        <v>57.17170442742437</v>
+        <v>24.82338851715046</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.160857965662474</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.793537074493676</v>
       </c>
       <c r="L6">
-        <v>6.056557977058717</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.62680068014773</v>
+        <v>10.01571245273599</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>18.51318092916982</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.85597547435524</v>
+        <v>11.12971997540999</v>
       </c>
       <c r="C7">
-        <v>11.52316552012703</v>
+        <v>6.181578235480234</v>
       </c>
       <c r="D7">
-        <v>9.88246109620775</v>
+        <v>5.843634158614261</v>
       </c>
       <c r="E7">
-        <v>7.123514173101896</v>
+        <v>8.82714295789412</v>
       </c>
       <c r="F7">
-        <v>58.24821605708856</v>
+        <v>24.8659272236863</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.156413051780402</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.988434291384111</v>
       </c>
       <c r="L7">
-        <v>6.072750150829425</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.76176909930195</v>
+        <v>10.1528042534201</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>18.49275454996509</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.72677228771868</v>
+        <v>12.20458338788545</v>
       </c>
       <c r="C8">
-        <v>12.68732215173499</v>
+        <v>6.54811101384984</v>
       </c>
       <c r="D8">
-        <v>10.40390391113611</v>
+        <v>6.177848156967295</v>
       </c>
       <c r="E8">
-        <v>7.219147293932125</v>
+        <v>9.091763893006249</v>
       </c>
       <c r="F8">
-        <v>62.89232066642412</v>
+        <v>25.09520596398115</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.142365618951528</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.80543979974306</v>
       </c>
       <c r="L8">
-        <v>6.152229365961208</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.37095104883414</v>
+        <v>10.74494518420418</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>18.43269203963445</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.44290489763844</v>
+        <v>14.08329870521282</v>
       </c>
       <c r="C9">
-        <v>14.81660584420578</v>
+        <v>7.211833019329654</v>
       </c>
       <c r="D9">
-        <v>11.41528369924998</v>
+        <v>6.802789144346653</v>
       </c>
       <c r="E9">
-        <v>7.413419664753532</v>
+        <v>9.626655328681705</v>
       </c>
       <c r="F9">
-        <v>71.61786206572445</v>
+        <v>25.70099258880486</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.135789181122843</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.25048494610098</v>
       </c>
       <c r="L9">
-        <v>6.339289337254156</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.81451578522656</v>
+        <v>11.85020932490016</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>18.43186441832697</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.02783258550895</v>
+        <v>15.32628848652715</v>
       </c>
       <c r="C10">
-        <v>16.30631534443784</v>
+        <v>7.663690600392068</v>
       </c>
       <c r="D10">
-        <v>12.15612224180585</v>
+        <v>7.239287142151977</v>
       </c>
       <c r="E10">
-        <v>7.56501683982676</v>
+        <v>10.02618110812105</v>
       </c>
       <c r="F10">
-        <v>77.82184008227442</v>
+        <v>26.24660863867454</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.1446554208653</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.21545213641038</v>
       </c>
       <c r="L10">
-        <v>6.498323579633611</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>15.25101836080333</v>
+        <v>12.66282497627217</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>18.51077498083266</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.17901339239237</v>
+        <v>15.86251465356799</v>
       </c>
       <c r="C11">
-        <v>16.97317745366814</v>
+        <v>7.861165827920488</v>
       </c>
       <c r="D11">
-        <v>12.49436764326047</v>
+        <v>7.432289345271853</v>
       </c>
       <c r="E11">
-        <v>7.637257557978358</v>
+        <v>10.20874117595456</v>
       </c>
       <c r="F11">
-        <v>80.61099556091158</v>
+        <v>26.51761259553472</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.151866387045942</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.6334519476631</v>
       </c>
       <c r="L11">
-        <v>6.576061221172298</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.88742534080989</v>
+        <v>13.09273109574938</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>18.56570953599099</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.61211387160721</v>
+        <v>16.06141786093719</v>
       </c>
       <c r="C12">
-        <v>17.22470598963707</v>
+        <v>7.934764902632588</v>
       </c>
       <c r="D12">
-        <v>12.62283095212062</v>
+        <v>7.504532045671246</v>
       </c>
       <c r="E12">
-        <v>7.665227112858654</v>
+        <v>10.27794293799567</v>
       </c>
       <c r="F12">
-        <v>81.66385696667641</v>
+        <v>26.62357983974536</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.155071104709613</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.78873272099847</v>
       </c>
       <c r="L12">
-        <v>6.606345587334005</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>16.12637397106737</v>
+        <v>13.25233811626708</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>18.58939439078302</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.51895031366248</v>
+        <v>16.01876446449464</v>
       </c>
       <c r="C13">
-        <v>17.17056907320629</v>
+        <v>7.918966770537084</v>
       </c>
       <c r="D13">
-        <v>12.59514350605661</v>
+        <v>7.48901137909856</v>
       </c>
       <c r="E13">
-        <v>7.65917348609102</v>
+        <v>10.26303666981543</v>
       </c>
       <c r="F13">
-        <v>81.43722530511982</v>
+        <v>26.60060820002431</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.154359548742788</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.75542374149274</v>
       </c>
       <c r="L13">
-        <v>6.599784348684092</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>16.07499570993451</v>
+        <v>13.21810519683846</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>18.58416294174242</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.21469673406473</v>
+        <v>15.87896151197869</v>
       </c>
       <c r="C14">
-        <v>16.99388725003609</v>
+        <v>7.867244615823004</v>
       </c>
       <c r="D14">
-        <v>12.50492748972234</v>
+        <v>7.438249908511331</v>
       </c>
       <c r="E14">
-        <v>7.639545410061331</v>
+        <v>10.21443328975499</v>
       </c>
       <c r="F14">
-        <v>80.69767218597171</v>
+        <v>26.52626321485911</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.152120440009133</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.64628717512869</v>
       </c>
       <c r="L14">
-        <v>6.578535301317125</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.90712215357815</v>
+        <v>13.10592578692066</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>18.56759950974065</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.02798885432619</v>
+        <v>15.79278864287863</v>
       </c>
       <c r="C15">
-        <v>16.88555309107456</v>
+        <v>7.835409099127394</v>
       </c>
       <c r="D15">
-        <v>12.44972358863862</v>
+        <v>7.407046117807532</v>
       </c>
       <c r="E15">
-        <v>7.627607286451246</v>
+        <v>10.18467015597743</v>
       </c>
       <c r="F15">
-        <v>80.24429022369553</v>
+        <v>26.48116207550093</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.150811177042984</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.57904669068092</v>
       </c>
       <c r="L15">
-        <v>6.565632293919123</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.80404188971472</v>
+        <v>13.03679831702969</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>18.55783358146875</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.95216148056569</v>
+        <v>15.29066091602297</v>
       </c>
       <c r="C16">
-        <v>16.26256187226256</v>
+        <v>7.650620838130541</v>
       </c>
       <c r="D16">
-        <v>12.13405774545723</v>
+        <v>7.2265581743101</v>
       </c>
       <c r="E16">
-        <v>7.560373193191058</v>
+        <v>10.01426264406001</v>
       </c>
       <c r="F16">
-        <v>77.63900910421418</v>
+        <v>26.22936241786283</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.144249564688922</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.187713496556</v>
       </c>
       <c r="L16">
-        <v>6.493357532584176</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>15.2091175671611</v>
+        <v>12.63428158269398</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>18.50758034797211</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.2863152339289</v>
+        <v>14.97517158632627</v>
       </c>
       <c r="C17">
-        <v>15.87797002271655</v>
+        <v>7.535175080765448</v>
       </c>
       <c r="D17">
-        <v>11.94084801873082</v>
+        <v>7.114376464479183</v>
       </c>
       <c r="E17">
-        <v>7.520059106900283</v>
+        <v>9.909896787545842</v>
       </c>
       <c r="F17">
-        <v>76.03316940377545</v>
+        <v>26.08077971035212</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.141050157388154</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.94227654025851</v>
       </c>
       <c r="L17">
-        <v>6.450446908963435</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.84004847074636</v>
+        <v>12.40063812458387</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>18.48173074037706</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.90095969598303</v>
+        <v>14.79095750451912</v>
       </c>
       <c r="C18">
-        <v>15.65570590306029</v>
+        <v>7.468014230832103</v>
       </c>
       <c r="D18">
-        <v>11.82982010375577</v>
+        <v>7.049330911479575</v>
       </c>
       <c r="E18">
-        <v>7.497170051292043</v>
+        <v>9.849947420648727</v>
       </c>
       <c r="F18">
-        <v>75.10631238532586</v>
+        <v>25.99746151450891</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.13950798935865</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.79913303918818</v>
       </c>
       <c r="L18">
-        <v>6.426268392885863</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.62613507046249</v>
+        <v>12.28575894383747</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>18.46864601550898</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.77005678704209</v>
+        <v>14.72811156440934</v>
       </c>
       <c r="C19">
-        <v>15.58025431298237</v>
+        <v>7.445144951735501</v>
       </c>
       <c r="D19">
-        <v>11.7922401498139</v>
+        <v>7.027219473381178</v>
       </c>
       <c r="E19">
-        <v>7.489467620759804</v>
+        <v>9.829664686795098</v>
       </c>
       <c r="F19">
-        <v>74.79190468231801</v>
+        <v>25.96961731375825</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.139036512663662</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.75032781469013</v>
       </c>
       <c r="L19">
-        <v>6.418166321431968</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.55341563125826</v>
+        <v>12.24670432152147</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>18.46451761688231</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.35743708725292</v>
+        <v>15.00904055203895</v>
       </c>
       <c r="C20">
-        <v>15.91901619607931</v>
+        <v>7.54754324081567</v>
       </c>
       <c r="D20">
-        <v>11.96140378004852</v>
+        <v>7.126372721932074</v>
       </c>
       <c r="E20">
-        <v>7.524318776028013</v>
+        <v>9.920998877517341</v>
       </c>
       <c r="F20">
-        <v>76.20443809669374</v>
+        <v>26.09637434490301</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.141359770395325</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.9686080525507</v>
       </c>
       <c r="L20">
-        <v>6.454962334493411</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.8795029538658</v>
+        <v>12.4218238082322</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>18.48429686220565</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.30413349524627</v>
+        <v>15.92013737600368</v>
       </c>
       <c r="C21">
-        <v>17.04580504721367</v>
+        <v>7.882468828260901</v>
       </c>
       <c r="D21">
-        <v>12.53141400776487</v>
+        <v>7.453182964608092</v>
       </c>
       <c r="E21">
-        <v>7.645292714863766</v>
+        <v>10.22870772337695</v>
       </c>
       <c r="F21">
-        <v>80.91497380057791</v>
+        <v>26.54800889577406</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.152765115241813</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.67842472815884</v>
       </c>
       <c r="L21">
-        <v>6.584753037090888</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.95648254138846</v>
+        <v>13.1389618874083</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>18.57238521453919</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.5603982434374</v>
+        <v>16.4914030263441</v>
       </c>
       <c r="C22">
-        <v>17.77675906856173</v>
+        <v>8.094476286201976</v>
       </c>
       <c r="D22">
-        <v>12.90628359594725</v>
+        <v>7.661844257307878</v>
       </c>
       <c r="E22">
-        <v>7.728022228385853</v>
+        <v>10.43020443757928</v>
       </c>
       <c r="F22">
-        <v>83.97514932982575</v>
+        <v>26.86269553609485</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.162990766055695</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.12481440733752</v>
       </c>
       <c r="L22">
-        <v>6.674559242722427</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>16.64868119242221</v>
+        <v>13.59762657468212</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>18.64682324302337</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.89108664043145</v>
+        <v>16.18870473377094</v>
       </c>
       <c r="C23">
-        <v>17.38691974255809</v>
+        <v>7.981958788577087</v>
       </c>
       <c r="D23">
-        <v>12.70591330451501</v>
+        <v>7.550940809954209</v>
       </c>
       <c r="E23">
-        <v>7.683477102097634</v>
+        <v>10.32264022449441</v>
       </c>
       <c r="F23">
-        <v>82.34297630696959</v>
+        <v>26.69293543148279</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.157273758439009</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.88816601568379</v>
       </c>
       <c r="L23">
-        <v>6.626144607668293</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>16.28015326323034</v>
+        <v>13.35451679766114</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>18.60550323285337</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.32529089800082</v>
+        <v>14.99373722677274</v>
       </c>
       <c r="C24">
-        <v>15.90046286589746</v>
+        <v>7.541954053408386</v>
       </c>
       <c r="D24">
-        <v>11.95211037601864</v>
+        <v>7.120950926173678</v>
       </c>
       <c r="E24">
-        <v>7.522392092724458</v>
+        <v>9.915979457204159</v>
       </c>
       <c r="F24">
-        <v>76.1270189552317</v>
+        <v>26.08931746218797</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.141218869891522</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.95670992596656</v>
       </c>
       <c r="L24">
-        <v>6.452919385286125</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.8616710025371</v>
+        <v>12.41224883394048</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>18.48313119591134</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.46503091183208</v>
+        <v>13.59935119558692</v>
       </c>
       <c r="C25">
-        <v>14.25526459595791</v>
+        <v>7.038431073072079</v>
       </c>
       <c r="D25">
-        <v>11.14251318515684</v>
+        <v>6.63744833218223</v>
       </c>
       <c r="E25">
-        <v>7.359700810140205</v>
+        <v>9.480582937764769</v>
       </c>
       <c r="F25">
-        <v>69.29655993848745</v>
+        <v>25.51980405708149</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.135230061751849</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.87651845680901</v>
       </c>
       <c r="L25">
-        <v>6.285098480322852</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.27109286680504</v>
+        <v>11.55798247778348</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>18.41872104384429</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.48023438583529</v>
+        <v>10.18201399862616</v>
       </c>
       <c r="C2">
-        <v>6.643798747138545</v>
+        <v>4.340856429089271</v>
       </c>
       <c r="D2">
-        <v>6.266519155360443</v>
+        <v>8.631474025476477</v>
       </c>
       <c r="E2">
-        <v>9.164667568727596</v>
+        <v>13.63263849530765</v>
       </c>
       <c r="F2">
-        <v>25.16767714779248</v>
+        <v>36.21285343707838</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.139945373440611</v>
+        <v>10.32451255953204</v>
       </c>
       <c r="K2">
-        <v>11.01623659011826</v>
+        <v>9.564593265398603</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.9019036411938</v>
+        <v>15.02640002581191</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.42402929797667</v>
+        <v>27.63659263531571</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.66334240579975</v>
+        <v>9.943804821937535</v>
       </c>
       <c r="C3">
-        <v>6.362172229332804</v>
+        <v>4.194357348631216</v>
       </c>
       <c r="D3">
-        <v>6.007161498835079</v>
+        <v>8.599908211621893</v>
       </c>
       <c r="E3">
-        <v>8.954530643414952</v>
+        <v>13.62914680221801</v>
       </c>
       <c r="F3">
-        <v>24.96919026071969</v>
+        <v>36.28459783135274</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.148531247370332</v>
+        <v>10.34531993874193</v>
       </c>
       <c r="K3">
-        <v>10.39299231659394</v>
+        <v>9.407726021104814</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10.44264825162877</v>
+        <v>14.96942325103585</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.45780495396257</v>
+        <v>27.71900279472649</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.13270544821362</v>
+        <v>9.796481557039414</v>
       </c>
       <c r="C4">
-        <v>6.182580597127243</v>
+        <v>4.101062199758176</v>
       </c>
       <c r="D4">
-        <v>5.844535169207234</v>
+        <v>8.581810633105528</v>
       </c>
       <c r="E4">
-        <v>8.827833267890169</v>
+        <v>13.62927148237988</v>
       </c>
       <c r="F4">
-        <v>24.86644736257046</v>
+        <v>36.33633611243493</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.156364042249101</v>
+        <v>10.35926522512753</v>
       </c>
       <c r="K4">
-        <v>9.99069144694643</v>
+        <v>9.311584336855518</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.15440192382216</v>
+        <v>14.93664562874724</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.49253157694483</v>
+        <v>27.77486253062056</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.90913043300521</v>
+        <v>9.736269120299138</v>
       </c>
       <c r="C5">
-        <v>6.107776699909841</v>
+        <v>4.062240146958278</v>
       </c>
       <c r="D5">
-        <v>5.777509815281047</v>
+        <v>8.574763920546062</v>
       </c>
       <c r="E5">
-        <v>8.776846189478093</v>
+        <v>13.62989428276155</v>
       </c>
       <c r="F5">
-        <v>24.82927965099244</v>
+        <v>36.35934970794574</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.160185748661833</v>
+        <v>10.36524240525651</v>
       </c>
       <c r="K5">
-        <v>9.821864110250448</v>
+        <v>9.272498714816226</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.03553073028193</v>
+        <v>14.92385294399519</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.51006833114027</v>
+        <v>27.7989464541241</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.87156215112755</v>
+        <v>9.726262896112365</v>
       </c>
       <c r="C6">
-        <v>6.095259704244119</v>
+        <v>4.055746414388171</v>
       </c>
       <c r="D6">
-        <v>5.766337810164397</v>
+        <v>8.573613790983462</v>
       </c>
       <c r="E6">
-        <v>8.768420355813415</v>
+        <v>13.63003228520333</v>
       </c>
       <c r="F6">
-        <v>24.82338851715046</v>
+        <v>36.36328755531196</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.160857965662474</v>
+        <v>10.3662526986388</v>
       </c>
       <c r="K6">
-        <v>9.793537074493676</v>
+        <v>9.266015621596335</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.01571245273599</v>
+        <v>14.92176309133655</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.51318092916982</v>
+        <v>27.80302527584623</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.12971997540999</v>
+        <v>9.795670106358765</v>
       </c>
       <c r="C7">
-        <v>6.181578235480234</v>
+        <v>4.100541833099856</v>
       </c>
       <c r="D7">
-        <v>5.843634158614261</v>
+        <v>8.581714263008898</v>
       </c>
       <c r="E7">
-        <v>8.82714295789412</v>
+        <v>13.62927756386048</v>
       </c>
       <c r="F7">
-        <v>24.8659272236863</v>
+        <v>36.33663867249513</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.156413051780402</v>
+        <v>10.3593446432253</v>
       </c>
       <c r="K7">
-        <v>9.988434291384111</v>
+        <v>9.311056773591565</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.1528042534201</v>
+        <v>14.93647080431495</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.49275454996509</v>
+        <v>27.77518199029936</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.20458338788545</v>
+        <v>10.10015277305855</v>
       </c>
       <c r="C8">
-        <v>6.54811101384984</v>
+        <v>4.291058831482843</v>
       </c>
       <c r="D8">
-        <v>6.177848156967295</v>
+        <v>8.620326945907751</v>
       </c>
       <c r="E8">
-        <v>9.091763893006249</v>
+        <v>13.63096470493369</v>
       </c>
       <c r="F8">
-        <v>25.09520596398115</v>
+        <v>36.23599372932272</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.142365618951528</v>
+        <v>10.33144439581669</v>
       </c>
       <c r="K8">
-        <v>10.80543979974306</v>
+        <v>9.510498130960714</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.74494518420418</v>
+        <v>15.00630247138895</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.43269203963445</v>
+        <v>27.66391489844211</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.08329870521282</v>
+        <v>10.68505201329504</v>
       </c>
       <c r="C9">
-        <v>7.211833019329654</v>
+        <v>4.636682066171169</v>
       </c>
       <c r="D9">
-        <v>6.802789144346653</v>
+        <v>8.705985580188742</v>
       </c>
       <c r="E9">
-        <v>9.626655328681705</v>
+        <v>13.65219697096628</v>
       </c>
       <c r="F9">
-        <v>25.70099258880486</v>
+        <v>36.09974565224459</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.135789181122843</v>
+        <v>10.28599846796049</v>
       </c>
       <c r="K9">
-        <v>12.25048494610098</v>
+        <v>9.900883870613859</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>11.85020932490016</v>
+        <v>15.16029985778427</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.43186441832697</v>
+        <v>27.48753658605569</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.32628848652715</v>
+        <v>11.10260869652087</v>
       </c>
       <c r="C10">
-        <v>7.663690600392068</v>
+        <v>4.871874571669933</v>
       </c>
       <c r="D10">
-        <v>7.239287142151977</v>
+        <v>8.77462622582383</v>
       </c>
       <c r="E10">
-        <v>10.02618110812105</v>
+        <v>13.67860724859336</v>
       </c>
       <c r="F10">
-        <v>26.24660863867454</v>
+        <v>36.03704875132539</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.1446554208653</v>
+        <v>10.25824086807658</v>
       </c>
       <c r="K10">
-        <v>13.21545213641038</v>
+        <v>10.1845072421317</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.66282497627217</v>
+        <v>15.28320591447971</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.51077498083266</v>
+        <v>27.38355434984816</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.86251465356799</v>
+        <v>11.28901741444837</v>
       </c>
       <c r="C11">
-        <v>7.861165827920488</v>
+        <v>4.974512900817066</v>
       </c>
       <c r="D11">
-        <v>7.432289345271853</v>
+        <v>8.807010973570232</v>
       </c>
       <c r="E11">
-        <v>10.20874117595456</v>
+        <v>13.69293948522034</v>
       </c>
       <c r="F11">
-        <v>26.51761259553472</v>
+        <v>36.01667000668015</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.151866387045942</v>
+        <v>10.24683223491522</v>
       </c>
       <c r="K11">
-        <v>13.6334519476631</v>
+        <v>10.31228527292682</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.09273109574938</v>
+        <v>15.34109378105421</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.56570953599099</v>
+        <v>27.34183146054809</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.06141786093719</v>
+        <v>11.35902794234373</v>
       </c>
       <c r="C12">
-        <v>7.934764902632588</v>
+        <v>5.012733402440843</v>
       </c>
       <c r="D12">
-        <v>7.504532045671246</v>
+        <v>8.819433755927628</v>
       </c>
       <c r="E12">
-        <v>10.27794293799567</v>
+        <v>13.69869705613012</v>
       </c>
       <c r="F12">
-        <v>26.62357983974536</v>
+        <v>36.01012481943727</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.155071104709613</v>
+        <v>10.24268697846641</v>
       </c>
       <c r="K12">
-        <v>13.78873272099847</v>
+        <v>10.36044858737724</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.25233811626708</v>
+        <v>15.36328573881582</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.58939439078302</v>
+        <v>27.32683601417247</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.01876446449464</v>
+        <v>11.34397669593823</v>
       </c>
       <c r="C13">
-        <v>7.918966770537084</v>
+        <v>5.004530982569888</v>
       </c>
       <c r="D13">
-        <v>7.48901137909856</v>
+        <v>8.816751319081808</v>
       </c>
       <c r="E13">
-        <v>10.26303666981543</v>
+        <v>13.69744242336718</v>
       </c>
       <c r="F13">
-        <v>26.60060820002431</v>
+        <v>36.01148231738225</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.154359548742788</v>
+        <v>10.24357195716832</v>
       </c>
       <c r="K13">
-        <v>13.75542374149274</v>
+        <v>10.35008638274629</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.21810519683846</v>
+        <v>15.35849446245176</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.58416294174242</v>
+        <v>27.33002976113037</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.87896151197869</v>
+        <v>11.29478919350358</v>
       </c>
       <c r="C14">
-        <v>7.867244615823004</v>
+        <v>4.977670388009038</v>
       </c>
       <c r="D14">
-        <v>7.438249908511331</v>
+        <v>8.808029852268758</v>
       </c>
       <c r="E14">
-        <v>10.21443328975499</v>
+        <v>13.69340656359716</v>
       </c>
       <c r="F14">
-        <v>26.52626321485911</v>
+        <v>36.01610804213654</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.152120440009133</v>
+        <v>10.24648769755093</v>
       </c>
       <c r="K14">
-        <v>13.64628717512869</v>
+        <v>10.31625242446066</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.10592578692066</v>
+        <v>15.34291417123239</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.56759950974065</v>
+        <v>27.34058165060211</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79278864287863</v>
+        <v>11.26458313325095</v>
       </c>
       <c r="C15">
-        <v>7.835409099127394</v>
+        <v>4.961132751088233</v>
       </c>
       <c r="D15">
-        <v>7.407046117807532</v>
+        <v>8.802708234843042</v>
       </c>
       <c r="E15">
-        <v>10.18467015597743</v>
+        <v>13.69097739738849</v>
       </c>
       <c r="F15">
-        <v>26.48116207550093</v>
+        <v>36.01909405363057</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.150811177042984</v>
+        <v>10.24829644778471</v>
       </c>
       <c r="K15">
-        <v>13.57904669068092</v>
+        <v>10.29549775832896</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.03679831702969</v>
+        <v>15.33340569552185</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.55783358146875</v>
+        <v>27.34714975825482</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.29066091602297</v>
+        <v>11.09034916586434</v>
       </c>
       <c r="C16">
-        <v>7.650620838130541</v>
+        <v>4.865077520724664</v>
       </c>
       <c r="D16">
-        <v>7.2265581743101</v>
+        <v>8.772532517368029</v>
       </c>
       <c r="E16">
-        <v>10.01426264406001</v>
+        <v>13.67771699220092</v>
       </c>
       <c r="F16">
-        <v>26.22936241786283</v>
+        <v>36.03854448831284</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.144249564688922</v>
+        <v>10.25901094473569</v>
       </c>
       <c r="K16">
-        <v>13.187713496556</v>
+        <v>10.17612776209553</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12.63428158269398</v>
+        <v>15.27946147051785</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.50758034797211</v>
+        <v>27.38639346482496</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.97517158632627</v>
+        <v>10.98250458335518</v>
       </c>
       <c r="C17">
-        <v>7.535175080765448</v>
+        <v>4.80502059141437</v>
       </c>
       <c r="D17">
-        <v>7.114376464479183</v>
+        <v>8.754312552866006</v>
       </c>
       <c r="E17">
-        <v>9.909896787545842</v>
+        <v>13.67017377527321</v>
       </c>
       <c r="F17">
-        <v>26.08077971035212</v>
+        <v>36.05256299944557</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.141050157388154</v>
+        <v>10.26589582702949</v>
       </c>
       <c r="K17">
-        <v>12.94227654025851</v>
+        <v>10.10254723044531</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12.40063812458387</v>
+        <v>15.24686556467192</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.48173074037706</v>
+        <v>27.41189850271012</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.79095750451912</v>
+        <v>10.92014585289805</v>
       </c>
       <c r="C18">
-        <v>7.468014230832103</v>
+        <v>4.770068861941884</v>
       </c>
       <c r="D18">
-        <v>7.049330911479575</v>
+        <v>8.743942532575398</v>
       </c>
       <c r="E18">
-        <v>9.849947420648727</v>
+        <v>13.66605350478012</v>
       </c>
       <c r="F18">
-        <v>25.99746151450891</v>
+        <v>36.06139245471574</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.13950798935865</v>
+        <v>10.2699705307049</v>
       </c>
       <c r="K18">
-        <v>12.79913303918818</v>
+        <v>10.06011114236035</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12.28575894383747</v>
+        <v>15.22830419283106</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.46864601550898</v>
+        <v>27.42709335984739</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.72811156440934</v>
+        <v>10.89897788718379</v>
       </c>
       <c r="C19">
-        <v>7.445144951735501</v>
+        <v>4.758165306472882</v>
       </c>
       <c r="D19">
-        <v>7.027219473381178</v>
+        <v>8.740450470875253</v>
       </c>
       <c r="E19">
-        <v>9.829664686795098</v>
+        <v>13.66469604962916</v>
       </c>
       <c r="F19">
-        <v>25.96961731375825</v>
+        <v>36.06451354542017</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.139036512663662</v>
+        <v>10.27136986338277</v>
       </c>
       <c r="K19">
-        <v>12.75032781469013</v>
+        <v>10.0457247365301</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12.24670432152147</v>
+        <v>15.22205213408523</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.46451761688231</v>
+        <v>27.43232819476685</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.00904055203895</v>
+        <v>10.99401943199561</v>
       </c>
       <c r="C20">
-        <v>7.54754324081567</v>
+        <v>4.811456197522268</v>
       </c>
       <c r="D20">
-        <v>7.126372721932074</v>
+        <v>8.7562408066103</v>
       </c>
       <c r="E20">
-        <v>9.920998877517341</v>
+        <v>13.67095418262649</v>
       </c>
       <c r="F20">
-        <v>26.09637434490301</v>
+        <v>36.05099137918315</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.141359770395325</v>
+        <v>10.2651510502747</v>
       </c>
       <c r="K20">
-        <v>12.9686080525507</v>
+        <v>10.1103921848074</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12.4218238082322</v>
+        <v>15.25031620257183</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.48429686220565</v>
+        <v>27.40912909518175</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.92013737600368</v>
+        <v>11.3092529798633</v>
       </c>
       <c r="C21">
-        <v>7.882468828260901</v>
+        <v>4.985577690055722</v>
       </c>
       <c r="D21">
-        <v>7.453182964608092</v>
+        <v>8.810587292969405</v>
       </c>
       <c r="E21">
-        <v>10.22870772337695</v>
+        <v>13.69458305596565</v>
       </c>
       <c r="F21">
-        <v>26.54800889577406</v>
+        <v>36.01471754756044</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.152765115241813</v>
+        <v>10.24562652810364</v>
       </c>
       <c r="K21">
-        <v>13.67842472815884</v>
+        <v>10.32619668810455</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.1389618874083</v>
+        <v>15.34748323096325</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.57238521453919</v>
+        <v>27.33746046767084</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.4914030263441</v>
+        <v>11.51187645310357</v>
       </c>
       <c r="C22">
-        <v>8.094476286201976</v>
+        <v>5.095600668217984</v>
       </c>
       <c r="D22">
-        <v>7.661844257307878</v>
+        <v>8.847031274620463</v>
       </c>
       <c r="E22">
-        <v>10.43020443757928</v>
+        <v>13.71194931071946</v>
       </c>
       <c r="F22">
-        <v>26.86269553609485</v>
+        <v>35.9978407002079</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.162990766055695</v>
+        <v>10.23388571106605</v>
       </c>
       <c r="K22">
-        <v>14.12481440733752</v>
+        <v>10.46591571661023</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.59762657468212</v>
+        <v>15.41256114609167</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.64682324302337</v>
+        <v>27.29530858694986</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.18870473377094</v>
+        <v>11.40406513968337</v>
       </c>
       <c r="C23">
-        <v>7.981958788577087</v>
+        <v>5.037230922739933</v>
       </c>
       <c r="D23">
-        <v>7.550940809954209</v>
+        <v>8.827498260510138</v>
       </c>
       <c r="E23">
-        <v>10.32264022449441</v>
+        <v>13.70250570362727</v>
       </c>
       <c r="F23">
-        <v>26.69293543148279</v>
+        <v>36.00622306062057</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.157273758439009</v>
+        <v>10.24005880328268</v>
       </c>
       <c r="K23">
-        <v>13.88816601568379</v>
+        <v>10.39148018565443</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.35451679766114</v>
+        <v>15.37768832538335</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.60550323285337</v>
+        <v>27.31737633956313</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.99373722677274</v>
+        <v>10.98881467695224</v>
       </c>
       <c r="C24">
-        <v>7.541954053408386</v>
+        <v>4.808547979723288</v>
       </c>
       <c r="D24">
-        <v>7.120950926173678</v>
+        <v>8.755368715856058</v>
       </c>
       <c r="E24">
-        <v>9.915979457204159</v>
+        <v>13.67060068609849</v>
       </c>
       <c r="F24">
-        <v>26.08931746218797</v>
+        <v>36.05169951017702</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.141218869891522</v>
+        <v>10.26548740095901</v>
       </c>
       <c r="K24">
-        <v>12.95670992596656</v>
+        <v>10.10684589384427</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12.41224883394048</v>
+        <v>15.248755612328</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.48313119591134</v>
+        <v>27.41037948831555</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.59935119558692</v>
+        <v>10.5286337241444</v>
       </c>
       <c r="C25">
-        <v>7.038431073072079</v>
+        <v>4.546364004596921</v>
       </c>
       <c r="D25">
-        <v>6.63744833218223</v>
+        <v>8.681783727215086</v>
       </c>
       <c r="E25">
-        <v>9.480582937764769</v>
+        <v>13.64454513077255</v>
       </c>
       <c r="F25">
-        <v>25.51980405708149</v>
+        <v>36.13004440825661</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.135230061751849</v>
+        <v>10.29730255044692</v>
       </c>
       <c r="K25">
-        <v>11.87651845680901</v>
+        <v>9.795640552352932</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>11.55798247778348</v>
+        <v>15.1168767898513</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.41872104384429</v>
+        <v>27.53076307467204</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.18201399862616</v>
+        <v>12.4802343858352</v>
       </c>
       <c r="C2">
-        <v>4.340856429089271</v>
+        <v>6.643798747138923</v>
       </c>
       <c r="D2">
-        <v>8.631474025476477</v>
+        <v>6.26651915536043</v>
       </c>
       <c r="E2">
-        <v>13.63263849530765</v>
+        <v>9.164667568727651</v>
       </c>
       <c r="F2">
-        <v>36.21285343707838</v>
+        <v>25.16767714779266</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.32451255953204</v>
+        <v>6.139945373440699</v>
       </c>
       <c r="K2">
-        <v>9.564593265398603</v>
+        <v>11.01623659011826</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.02640002581191</v>
+        <v>10.90190364119381</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.63659263531571</v>
+        <v>18.42402929797677</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.943804821937535</v>
+        <v>11.66334240579978</v>
       </c>
       <c r="C3">
-        <v>4.194357348631216</v>
+        <v>6.362172229332884</v>
       </c>
       <c r="D3">
-        <v>8.599908211621893</v>
+        <v>6.007161498835149</v>
       </c>
       <c r="E3">
-        <v>13.62914680221801</v>
+        <v>8.954530643415124</v>
       </c>
       <c r="F3">
-        <v>36.28459783135274</v>
+        <v>24.96919026071964</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.34531993874193</v>
+        <v>6.148531247370502</v>
       </c>
       <c r="K3">
-        <v>9.407726021104814</v>
+        <v>10.39299231659396</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.96942325103585</v>
+        <v>10.44264825162882</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.71900279472649</v>
+        <v>18.45780495396254</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.796481557039414</v>
+        <v>11.13270544821365</v>
       </c>
       <c r="C4">
-        <v>4.101062199758176</v>
+        <v>6.182580597127136</v>
       </c>
       <c r="D4">
-        <v>8.581810633105528</v>
+        <v>5.844535169207117</v>
       </c>
       <c r="E4">
-        <v>13.62927148237988</v>
+        <v>8.827833267890131</v>
       </c>
       <c r="F4">
-        <v>36.33633611243493</v>
+        <v>24.86644736257009</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.35926522512753</v>
+        <v>6.156364042249134</v>
       </c>
       <c r="K4">
-        <v>9.311584336855518</v>
+        <v>9.99069144694648</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.93664562874724</v>
+        <v>10.15440192382213</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.77486253062056</v>
+        <v>18.4925315769446</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.736269120299138</v>
+        <v>10.90913043300526</v>
       </c>
       <c r="C5">
-        <v>4.062240146958278</v>
+        <v>6.107776699909935</v>
       </c>
       <c r="D5">
-        <v>8.574763920546062</v>
+        <v>5.777509815281041</v>
       </c>
       <c r="E5">
-        <v>13.62989428276155</v>
+        <v>8.776846189478112</v>
       </c>
       <c r="F5">
-        <v>36.35934970794574</v>
+        <v>24.82927965099224</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.36524240525651</v>
+        <v>6.160185748661812</v>
       </c>
       <c r="K5">
-        <v>9.272498714816226</v>
+        <v>9.821864110250514</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.92385294399519</v>
+        <v>10.03553073028191</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.7989464541241</v>
+        <v>18.51006833114008</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.726262896112365</v>
+        <v>10.8715621511275</v>
       </c>
       <c r="C6">
-        <v>4.055746414388171</v>
+        <v>6.095259704244132</v>
       </c>
       <c r="D6">
-        <v>8.573613790983462</v>
+        <v>5.766337810164391</v>
       </c>
       <c r="E6">
-        <v>13.63003228520333</v>
+        <v>8.768420355813412</v>
       </c>
       <c r="F6">
-        <v>36.36328755531196</v>
+        <v>24.82338851715075</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.3662526986388</v>
+        <v>6.160857965662505</v>
       </c>
       <c r="K6">
-        <v>9.266015621596335</v>
+        <v>9.793537074493615</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.92176309133655</v>
+        <v>10.01571245273605</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.80302527584623</v>
+        <v>18.5131809291701</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.795670106358765</v>
+        <v>11.12971997541005</v>
       </c>
       <c r="C7">
-        <v>4.100541833099856</v>
+        <v>6.181578235480224</v>
       </c>
       <c r="D7">
-        <v>8.581714263008898</v>
+        <v>5.843634158614268</v>
       </c>
       <c r="E7">
-        <v>13.62927756386048</v>
+        <v>8.827142957894123</v>
       </c>
       <c r="F7">
-        <v>36.33663867249513</v>
+        <v>24.8659272236861</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.3593446432253</v>
+        <v>6.156413051780376</v>
       </c>
       <c r="K7">
-        <v>9.311056773591565</v>
+        <v>9.988434291384142</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.93647080431495</v>
+        <v>10.15280425342007</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.77518199029936</v>
+        <v>18.49275454996493</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.10015277305855</v>
+        <v>12.20458338788544</v>
       </c>
       <c r="C8">
-        <v>4.291058831482843</v>
+        <v>6.548111013849815</v>
       </c>
       <c r="D8">
-        <v>8.620326945907751</v>
+        <v>6.17784815696724</v>
       </c>
       <c r="E8">
-        <v>13.63096470493369</v>
+        <v>9.091763893006242</v>
       </c>
       <c r="F8">
-        <v>36.23599372932272</v>
+        <v>25.09520596398121</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.33144439581669</v>
+        <v>6.142365618951559</v>
       </c>
       <c r="K8">
-        <v>9.510498130960714</v>
+        <v>10.80543979974304</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.00630247138895</v>
+        <v>10.74494518420418</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.66391489844211</v>
+        <v>18.43269203963449</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.68505201329504</v>
+        <v>14.08329870521287</v>
       </c>
       <c r="C9">
-        <v>4.636682066171169</v>
+        <v>7.211833019329641</v>
       </c>
       <c r="D9">
-        <v>8.705985580188742</v>
+        <v>6.802789144346669</v>
       </c>
       <c r="E9">
-        <v>13.65219697096628</v>
+        <v>9.626655328681705</v>
       </c>
       <c r="F9">
-        <v>36.09974565224459</v>
+        <v>25.70099258880485</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.28599846796049</v>
+        <v>6.135789181122837</v>
       </c>
       <c r="K9">
-        <v>9.900883870613859</v>
+        <v>12.25048494610102</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.16029985778427</v>
+        <v>11.85020932490015</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.48753658605569</v>
+        <v>18.43186441832696</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.10260869652087</v>
+        <v>15.32628848652716</v>
       </c>
       <c r="C10">
-        <v>4.871874571669933</v>
+        <v>7.66369060039208</v>
       </c>
       <c r="D10">
-        <v>8.77462622582383</v>
+        <v>7.239287142151897</v>
       </c>
       <c r="E10">
-        <v>13.67860724859336</v>
+        <v>10.02618110812104</v>
       </c>
       <c r="F10">
-        <v>36.03704875132539</v>
+        <v>26.24660863867432</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.25824086807658</v>
+        <v>6.144655420865356</v>
       </c>
       <c r="K10">
-        <v>10.1845072421317</v>
+        <v>13.21545213641041</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.28320591447971</v>
+        <v>12.66282497627219</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.38355434984816</v>
+        <v>18.5107749808325</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.28901741444837</v>
+        <v>15.86251465356791</v>
       </c>
       <c r="C11">
-        <v>4.974512900817066</v>
+        <v>7.861165827920631</v>
       </c>
       <c r="D11">
-        <v>8.807010973570232</v>
+        <v>7.432289345271899</v>
       </c>
       <c r="E11">
-        <v>13.69293948522034</v>
+        <v>10.20874117595459</v>
       </c>
       <c r="F11">
-        <v>36.01667000668015</v>
+        <v>26.51761259553482</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.24683223491522</v>
+        <v>6.151866387045962</v>
       </c>
       <c r="K11">
-        <v>10.31228527292682</v>
+        <v>13.63345194766306</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.34109378105421</v>
+        <v>13.09273109574934</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.34183146054809</v>
+        <v>18.56570953599105</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.35902794234373</v>
+        <v>16.06141786093723</v>
       </c>
       <c r="C12">
-        <v>5.012733402440843</v>
+        <v>7.934764902632469</v>
       </c>
       <c r="D12">
-        <v>8.819433755927628</v>
+        <v>7.504532045671236</v>
       </c>
       <c r="E12">
-        <v>13.69869705613012</v>
+        <v>10.27794293799574</v>
       </c>
       <c r="F12">
-        <v>36.01012481943727</v>
+        <v>26.62357983974524</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.24268697846641</v>
+        <v>6.155071104709693</v>
       </c>
       <c r="K12">
-        <v>10.36044858737724</v>
+        <v>13.78873272099847</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.36328573881582</v>
+        <v>13.25233811626706</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.32683601417247</v>
+        <v>18.5893943907829</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.34397669593823</v>
+        <v>16.0187644644947</v>
       </c>
       <c r="C13">
-        <v>5.004530982569888</v>
+        <v>7.918966770537033</v>
       </c>
       <c r="D13">
-        <v>8.816751319081808</v>
+        <v>7.489011379098613</v>
       </c>
       <c r="E13">
-        <v>13.69744242336718</v>
+        <v>10.26303666981549</v>
       </c>
       <c r="F13">
-        <v>36.01148231738225</v>
+        <v>26.60060820002424</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.24357195716832</v>
+        <v>6.15435954874284</v>
       </c>
       <c r="K13">
-        <v>10.35008638274629</v>
+        <v>13.75542374149277</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.35849446245176</v>
+        <v>13.21810519683843</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.33002976113037</v>
+        <v>18.58416294174234</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.29478919350358</v>
+        <v>15.87896151197872</v>
       </c>
       <c r="C14">
-        <v>4.977670388009038</v>
+        <v>7.867244615822938</v>
       </c>
       <c r="D14">
-        <v>8.808029852268758</v>
+        <v>7.438249908511338</v>
       </c>
       <c r="E14">
-        <v>13.69340656359716</v>
+        <v>10.21443328975498</v>
       </c>
       <c r="F14">
-        <v>36.01610804213654</v>
+        <v>26.52626321485895</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.24648769755093</v>
+        <v>6.152120440009087</v>
       </c>
       <c r="K14">
-        <v>10.31625242446066</v>
+        <v>13.6462871751287</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.34291417123239</v>
+        <v>13.10592578692068</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.34058165060211</v>
+        <v>18.56759950974049</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.26458313325095</v>
+        <v>15.79278864287855</v>
       </c>
       <c r="C15">
-        <v>4.961132751088233</v>
+        <v>7.835409099127472</v>
       </c>
       <c r="D15">
-        <v>8.802708234843042</v>
+        <v>7.407046117807625</v>
       </c>
       <c r="E15">
-        <v>13.69097739738849</v>
+        <v>10.18467015597742</v>
       </c>
       <c r="F15">
-        <v>36.01909405363057</v>
+        <v>26.48116207550098</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.24829644778471</v>
+        <v>6.150811177042899</v>
       </c>
       <c r="K15">
-        <v>10.29549775832896</v>
+        <v>13.5790466906809</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.33340569552185</v>
+        <v>13.03679831702966</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.34714975825482</v>
+        <v>18.55783358146872</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.09034916586434</v>
+        <v>15.29066091602297</v>
       </c>
       <c r="C16">
-        <v>4.865077520724664</v>
+        <v>7.650620838130637</v>
       </c>
       <c r="D16">
-        <v>8.772532517368029</v>
+        <v>7.22655817431007</v>
       </c>
       <c r="E16">
-        <v>13.67771699220092</v>
+        <v>10.01426264406004</v>
       </c>
       <c r="F16">
-        <v>36.03854448831284</v>
+        <v>26.22936241786268</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.25901094473569</v>
+        <v>6.144249564688927</v>
       </c>
       <c r="K16">
-        <v>10.17612776209553</v>
+        <v>13.18771349655603</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.27946147051785</v>
+        <v>12.634281582694</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.38639346482496</v>
+        <v>18.50758034797197</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.98250458335518</v>
+        <v>14.97517158632622</v>
       </c>
       <c r="C17">
-        <v>4.80502059141437</v>
+        <v>7.535175080765708</v>
       </c>
       <c r="D17">
-        <v>8.754312552866006</v>
+        <v>7.114376464479176</v>
       </c>
       <c r="E17">
-        <v>13.67017377527321</v>
+        <v>9.909896787545815</v>
       </c>
       <c r="F17">
-        <v>36.05256299944557</v>
+        <v>26.080779710352</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.26589582702949</v>
+        <v>6.141050157388158</v>
       </c>
       <c r="K17">
-        <v>10.10254723044531</v>
+        <v>12.94227654025851</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.24686556467192</v>
+        <v>12.40063812458386</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.41189850271012</v>
+        <v>18.48173074037694</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.92014585289805</v>
+        <v>14.7909575045192</v>
       </c>
       <c r="C18">
-        <v>4.770068861941884</v>
+        <v>7.468014230832089</v>
       </c>
       <c r="D18">
-        <v>8.743942532575398</v>
+        <v>7.049330911479633</v>
       </c>
       <c r="E18">
-        <v>13.66605350478012</v>
+        <v>9.849947420648746</v>
       </c>
       <c r="F18">
-        <v>36.06139245471574</v>
+        <v>25.99746151450891</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.2699705307049</v>
+        <v>6.13950798935864</v>
       </c>
       <c r="K18">
-        <v>10.06011114236035</v>
+        <v>12.79913303918824</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.22830419283106</v>
+        <v>12.28575894383745</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.42709335984739</v>
+        <v>18.46864601550891</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.89897788718379</v>
+        <v>14.72811156440937</v>
       </c>
       <c r="C19">
-        <v>4.758165306472882</v>
+        <v>7.445144951735405</v>
       </c>
       <c r="D19">
-        <v>8.740450470875253</v>
+        <v>7.027219473381203</v>
       </c>
       <c r="E19">
-        <v>13.66469604962916</v>
+        <v>9.829664686795104</v>
       </c>
       <c r="F19">
-        <v>36.06451354542017</v>
+        <v>25.96961731375828</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.27136986338277</v>
+        <v>6.139036512663639</v>
       </c>
       <c r="K19">
-        <v>10.0457247365301</v>
+        <v>12.75032781469011</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.22205213408523</v>
+        <v>12.24670432152147</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.43232819476685</v>
+        <v>18.4645176168823</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.99401943199561</v>
+        <v>15.00904055203899</v>
       </c>
       <c r="C20">
-        <v>4.811456197522268</v>
+        <v>7.547543240815656</v>
       </c>
       <c r="D20">
-        <v>8.7562408066103</v>
+        <v>7.126372721932041</v>
       </c>
       <c r="E20">
-        <v>13.67095418262649</v>
+        <v>9.920998877517306</v>
       </c>
       <c r="F20">
-        <v>36.05099137918315</v>
+        <v>26.09637434490296</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.2651510502747</v>
+        <v>6.141359770395359</v>
       </c>
       <c r="K20">
-        <v>10.1103921848074</v>
+        <v>12.96860805255073</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.25031620257183</v>
+        <v>12.42182380823218</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.40912909518175</v>
+        <v>18.48429686220564</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.3092529798633</v>
+        <v>15.92013737600357</v>
       </c>
       <c r="C21">
-        <v>4.985577690055722</v>
+        <v>7.882468828260913</v>
       </c>
       <c r="D21">
-        <v>8.810587292969405</v>
+        <v>7.4531829646081</v>
       </c>
       <c r="E21">
-        <v>13.69458305596565</v>
+        <v>10.22870772337692</v>
       </c>
       <c r="F21">
-        <v>36.01471754756044</v>
+        <v>26.54800889577405</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.24562652810364</v>
+        <v>6.152765115241761</v>
       </c>
       <c r="K21">
-        <v>10.32619668810455</v>
+        <v>13.67842472815877</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.34748323096325</v>
+        <v>13.13896188740829</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.33746046767084</v>
+        <v>18.57238521453921</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.51187645310357</v>
+        <v>16.49140302634408</v>
       </c>
       <c r="C22">
-        <v>5.095600668217984</v>
+        <v>8.094476286201981</v>
       </c>
       <c r="D22">
-        <v>8.847031274620463</v>
+        <v>7.661844257307858</v>
       </c>
       <c r="E22">
-        <v>13.71194931071946</v>
+        <v>10.43020443757929</v>
       </c>
       <c r="F22">
-        <v>35.9978407002079</v>
+        <v>26.8626955360948</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.23388571106605</v>
+        <v>6.162990766055741</v>
       </c>
       <c r="K22">
-        <v>10.46591571661023</v>
+        <v>14.12481440733749</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.41256114609167</v>
+        <v>13.59762657468212</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.29530858694986</v>
+        <v>18.64682324302335</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.40406513968337</v>
+        <v>16.18870473377095</v>
       </c>
       <c r="C23">
-        <v>5.037230922739933</v>
+        <v>7.981958788577362</v>
       </c>
       <c r="D23">
-        <v>8.827498260510138</v>
+        <v>7.550940809954184</v>
       </c>
       <c r="E23">
-        <v>13.70250570362727</v>
+        <v>10.32264022449443</v>
       </c>
       <c r="F23">
-        <v>36.00622306062057</v>
+        <v>26.69293543148251</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.24005880328268</v>
+        <v>6.157273758439064</v>
       </c>
       <c r="K23">
-        <v>10.39148018565443</v>
+        <v>13.88816601568385</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.37768832538335</v>
+        <v>13.35451679766117</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.31737633956313</v>
+        <v>18.60550323285314</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.98881467695224</v>
+        <v>14.99373722677275</v>
       </c>
       <c r="C24">
-        <v>4.808547979723288</v>
+        <v>7.541954053408465</v>
       </c>
       <c r="D24">
-        <v>8.755368715856058</v>
+        <v>7.120950926173694</v>
       </c>
       <c r="E24">
-        <v>13.67060068609849</v>
+        <v>9.915979457204223</v>
       </c>
       <c r="F24">
-        <v>36.05169951017702</v>
+        <v>26.08931746218779</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.26548740095901</v>
+        <v>6.141218869891549</v>
       </c>
       <c r="K24">
-        <v>10.10684589384427</v>
+        <v>12.95670992596658</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.248755612328</v>
+        <v>12.41224883394047</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.41037948831555</v>
+        <v>18.4831311959112</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.5286337241444</v>
+        <v>13.59935119558688</v>
       </c>
       <c r="C25">
-        <v>4.546364004596921</v>
+        <v>7.038431073072192</v>
       </c>
       <c r="D25">
-        <v>8.681783727215086</v>
+        <v>6.637448332182267</v>
       </c>
       <c r="E25">
-        <v>13.64454513077255</v>
+        <v>9.480582937764794</v>
       </c>
       <c r="F25">
-        <v>36.13004440825661</v>
+        <v>25.51980405708126</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.29730255044692</v>
+        <v>6.135230061751907</v>
       </c>
       <c r="K25">
-        <v>9.795640552352932</v>
+        <v>11.87651845680901</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.1168767898513</v>
+        <v>11.55798247778348</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.53076307467204</v>
+        <v>18.41872104384413</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.4802343858352</v>
+        <v>21.08285944635006</v>
       </c>
       <c r="C2">
-        <v>6.643798747138923</v>
+        <v>16.87337120984945</v>
       </c>
       <c r="D2">
-        <v>6.26651915536043</v>
+        <v>5.863376067288486</v>
       </c>
       <c r="E2">
-        <v>9.164667568727651</v>
+        <v>7.265045197847825</v>
       </c>
       <c r="F2">
-        <v>25.16767714779266</v>
+        <v>40.63735804270669</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.708242830703563</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.333389200643039</v>
       </c>
       <c r="J2">
-        <v>6.139945373440699</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>11.01623659011826</v>
+        <v>28.17670616050981</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.90190364119381</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.721442394155706</v>
       </c>
       <c r="O2">
-        <v>18.42402929797677</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.91809112860055</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.66334240579978</v>
+        <v>19.6686116313537</v>
       </c>
       <c r="C3">
-        <v>6.362172229332884</v>
+        <v>15.71157232657164</v>
       </c>
       <c r="D3">
-        <v>6.007161498835149</v>
+        <v>5.793505540081869</v>
       </c>
       <c r="E3">
-        <v>8.954530643415124</v>
+        <v>6.958609328381479</v>
       </c>
       <c r="F3">
-        <v>24.96919026071964</v>
+        <v>38.72525755872661</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.015962798562638</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.618911945987358</v>
       </c>
       <c r="J3">
-        <v>6.148531247370502</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>10.39299231659396</v>
+        <v>27.21924472629381</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10.44264825162882</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.488172736596934</v>
       </c>
       <c r="O3">
-        <v>18.45780495396254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.27877679626858</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.13270544821365</v>
+        <v>18.7843363615446</v>
       </c>
       <c r="C4">
-        <v>6.182580597127136</v>
+        <v>14.96366098444735</v>
       </c>
       <c r="D4">
-        <v>5.844535169207117</v>
+        <v>5.747650614137108</v>
       </c>
       <c r="E4">
-        <v>8.827833267890131</v>
+        <v>6.76551716080965</v>
       </c>
       <c r="F4">
-        <v>24.86644736257009</v>
+        <v>37.50722640067578</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3.21044804910681</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.800002331541534</v>
       </c>
       <c r="J4">
-        <v>6.156364042249134</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>9.99069144694648</v>
+        <v>26.61207488281658</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.15440192382213</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.340793334287021</v>
       </c>
       <c r="O4">
-        <v>18.4925315769446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.87120864049124</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.90913043300526</v>
+        <v>18.41256910318848</v>
       </c>
       <c r="C5">
-        <v>6.107776699909935</v>
+        <v>14.65766154790033</v>
       </c>
       <c r="D5">
-        <v>5.777509815281041</v>
+        <v>5.723389650731857</v>
       </c>
       <c r="E5">
-        <v>8.776846189478112</v>
+        <v>6.685059985507349</v>
       </c>
       <c r="F5">
-        <v>24.82927965099224</v>
+        <v>36.96399763630374</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3.291761480443199</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.878133790138532</v>
       </c>
       <c r="J5">
-        <v>6.160185748661812</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>9.821864110250514</v>
+        <v>26.33176360836767</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.03553073028191</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.279803922201207</v>
       </c>
       <c r="O5">
-        <v>18.51006833114008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.70192028194725</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.8715621511275</v>
+        <v>18.35015075251261</v>
       </c>
       <c r="C6">
-        <v>6.095259704244132</v>
+        <v>14.61556792133806</v>
       </c>
       <c r="D6">
-        <v>5.766337810164391</v>
+        <v>5.713419692705445</v>
       </c>
       <c r="E6">
-        <v>8.768420355813412</v>
+        <v>6.671040561740969</v>
       </c>
       <c r="F6">
-        <v>24.82338851715075</v>
+        <v>36.82878726322744</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.306109333951247</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.894825058961651</v>
       </c>
       <c r="J6">
-        <v>6.160857965662505</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>9.793537074493615</v>
+        <v>26.25039239553121</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.01571245273605</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.269716497631864</v>
       </c>
       <c r="O6">
-        <v>18.5131809291701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.67411919000374</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.12971997541005</v>
+        <v>18.77932629441522</v>
       </c>
       <c r="C7">
-        <v>6.181578235480224</v>
+        <v>14.9841643672794</v>
       </c>
       <c r="D7">
-        <v>5.843634158614268</v>
+        <v>5.731275286372163</v>
       </c>
       <c r="E7">
-        <v>8.827142957894123</v>
+        <v>6.762871102633926</v>
       </c>
       <c r="F7">
-        <v>24.8659272236861</v>
+        <v>37.38065560565129</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3.213588039695213</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.810735004097664</v>
       </c>
       <c r="J7">
-        <v>6.156413051780376</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>9.988434291384142</v>
+        <v>26.5149541304275</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.15280425342007</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.340250635831655</v>
       </c>
       <c r="O7">
-        <v>18.49275454996493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.8703275551854</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.20458338788544</v>
+        <v>20.59874314024833</v>
       </c>
       <c r="C8">
-        <v>6.548111013849815</v>
+        <v>16.5096654727471</v>
       </c>
       <c r="D8">
-        <v>6.17784815696724</v>
+        <v>5.81900055760057</v>
       </c>
       <c r="E8">
-        <v>9.091763893006242</v>
+        <v>7.158385282872358</v>
       </c>
       <c r="F8">
-        <v>25.09520596398121</v>
+        <v>39.83825469455645</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.815845076257866</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.443323466030895</v>
       </c>
       <c r="J8">
-        <v>6.142365618951559</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>10.80543979974304</v>
+        <v>27.73193191337886</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.74494518420418</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.642266284371889</v>
       </c>
       <c r="O8">
-        <v>18.43269203963449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.70251024299698</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.08329870521287</v>
+        <v>23.88780830386277</v>
       </c>
       <c r="C9">
-        <v>7.211833019329641</v>
+        <v>19.19285668647086</v>
       </c>
       <c r="D9">
-        <v>6.802789144346669</v>
+        <v>5.995488739578417</v>
       </c>
       <c r="E9">
-        <v>9.626655328681705</v>
+        <v>7.89992888743723</v>
       </c>
       <c r="F9">
-        <v>25.70099258880485</v>
+        <v>44.48901721610561</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.074243193605878</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.750850098939833</v>
       </c>
       <c r="J9">
-        <v>6.135789181122837</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>12.25048494610102</v>
+        <v>30.11521227138662</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>11.85020932490015</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.199930257778298</v>
       </c>
       <c r="O9">
-        <v>18.43186441832696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.20789188189037</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.32628848652716</v>
+        <v>26.07656317080558</v>
       </c>
       <c r="C10">
-        <v>7.66369060039208</v>
+        <v>21.06602824397167</v>
       </c>
       <c r="D10">
-        <v>7.239287142151897</v>
+        <v>6.030111977188464</v>
       </c>
       <c r="E10">
-        <v>10.02618110812104</v>
+        <v>8.453328362592636</v>
       </c>
       <c r="F10">
-        <v>26.24660863867432</v>
+        <v>47.14293134933853</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1.591307720166258</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.678659829166646</v>
       </c>
       <c r="J10">
-        <v>6.144655420865356</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>13.21545213641041</v>
+        <v>31.33677594088964</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.66282497627219</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.480599946050277</v>
       </c>
       <c r="O10">
-        <v>18.5107749808325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.16017943772594</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.86251465356791</v>
+        <v>27.14583116849153</v>
       </c>
       <c r="C11">
-        <v>7.861165827920631</v>
+        <v>22.34404139114807</v>
       </c>
       <c r="D11">
-        <v>7.432289345271899</v>
+        <v>5.459819665264418</v>
       </c>
       <c r="E11">
-        <v>10.20874117595459</v>
+        <v>9.137731613883687</v>
       </c>
       <c r="F11">
-        <v>26.51761259553482</v>
+        <v>44.08693788952363</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2.638972191417566</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.803481159865374</v>
       </c>
       <c r="J11">
-        <v>6.151866387045962</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>13.63345194766306</v>
+        <v>28.48655240952234</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.09273109574934</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.72772360541242</v>
       </c>
       <c r="O11">
-        <v>18.56570953599105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.94525125396997</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.06141786093723</v>
+        <v>27.60952532789877</v>
       </c>
       <c r="C12">
-        <v>7.934764902632469</v>
+        <v>23.02194291486975</v>
       </c>
       <c r="D12">
-        <v>7.504532045671236</v>
+        <v>5.099394748305558</v>
       </c>
       <c r="E12">
-        <v>10.27794293799574</v>
+        <v>9.836403500002616</v>
       </c>
       <c r="F12">
-        <v>26.62357983974524</v>
+        <v>41.07427334758281</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.068237026554513</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.817835899372273</v>
       </c>
       <c r="J12">
-        <v>6.155071104709693</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>13.78873272099847</v>
+        <v>25.95521214725693</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.25233811626706</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.108102095100671</v>
       </c>
       <c r="O12">
-        <v>18.5893943907829</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.55577517100689</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.0187644644947</v>
+        <v>27.6497413583728</v>
       </c>
       <c r="C13">
-        <v>7.918966770537033</v>
+        <v>23.32903785800183</v>
       </c>
       <c r="D13">
-        <v>7.489011379098613</v>
+        <v>4.876699143466896</v>
       </c>
       <c r="E13">
-        <v>10.26303666981549</v>
+        <v>10.55446311718104</v>
       </c>
       <c r="F13">
-        <v>26.60060820002424</v>
+        <v>37.67703197795463</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.525609776921292</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.751293161975659</v>
       </c>
       <c r="J13">
-        <v>6.15435954874284</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>13.75542374149277</v>
+        <v>23.3591991998051</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.21810519683843</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.570940524861693</v>
       </c>
       <c r="O13">
-        <v>18.58416294174234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.00003195248414</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.87896151197872</v>
+        <v>27.48787276035001</v>
       </c>
       <c r="C14">
-        <v>7.867244615822938</v>
+        <v>23.38885242201412</v>
       </c>
       <c r="D14">
-        <v>7.438249908511338</v>
+        <v>4.808674904959866</v>
       </c>
       <c r="E14">
-        <v>10.21443328975498</v>
+        <v>11.08120801051352</v>
       </c>
       <c r="F14">
-        <v>26.52626321485895</v>
+        <v>35.05913662214911</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.553719574214438</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.670120176348087</v>
       </c>
       <c r="J14">
-        <v>6.152120440009087</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>13.6462871751287</v>
+        <v>21.49545289620458</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.10592578692068</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.262529342807661</v>
       </c>
       <c r="O14">
-        <v>18.56759950974049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.52934233343475</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79278864287855</v>
+        <v>27.35656803858381</v>
       </c>
       <c r="C15">
-        <v>7.835409099127472</v>
+        <v>23.33152420327006</v>
       </c>
       <c r="D15">
-        <v>7.407046117807625</v>
+        <v>4.80612291269847</v>
       </c>
       <c r="E15">
-        <v>10.18467015597742</v>
+        <v>11.18919117698694</v>
       </c>
       <c r="F15">
-        <v>26.48116207550098</v>
+        <v>34.29717301475931</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.794540970625869</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.633503900099915</v>
       </c>
       <c r="J15">
-        <v>6.150811177042899</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>13.5790466906809</v>
+        <v>20.99960825036129</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.03679831702966</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.19509487200414</v>
       </c>
       <c r="O15">
-        <v>18.55783358146872</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.3793573242802</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.29066091602297</v>
+        <v>26.46363082616929</v>
       </c>
       <c r="C16">
-        <v>7.650620838130637</v>
+        <v>22.5479581353078</v>
       </c>
       <c r="D16">
-        <v>7.22655817431007</v>
+        <v>4.831940978129302</v>
       </c>
       <c r="E16">
-        <v>10.01426264406004</v>
+        <v>10.84836936376026</v>
       </c>
       <c r="F16">
-        <v>26.22936241786268</v>
+        <v>33.58236665277217</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.616358878781763</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.561916054653458</v>
       </c>
       <c r="J16">
-        <v>6.144249564688927</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>13.18771349655603</v>
+        <v>20.87003132886328</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12.634281582694</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.164887003027156</v>
       </c>
       <c r="O16">
-        <v>18.50758034797197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.06455608995653</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.97517158632622</v>
+        <v>25.85228311833053</v>
       </c>
       <c r="C17">
-        <v>7.535175080765708</v>
+        <v>21.89850931496711</v>
       </c>
       <c r="D17">
-        <v>7.114376464479176</v>
+        <v>4.872313282260611</v>
       </c>
       <c r="E17">
-        <v>9.909896787545815</v>
+        <v>10.27500438774569</v>
       </c>
       <c r="F17">
-        <v>26.080779710352</v>
+        <v>34.47843788670191</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.909431013139847</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.664213363594558</v>
       </c>
       <c r="J17">
-        <v>6.141050157388158</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>12.94227654025851</v>
+        <v>21.76542198687891</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12.40063812458386</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.292418229147337</v>
       </c>
       <c r="O17">
-        <v>18.48173074037694</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.08074851765835</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.7909575045192</v>
+        <v>25.42817293534167</v>
       </c>
       <c r="C18">
-        <v>7.468014230832089</v>
+        <v>21.2848110940229</v>
       </c>
       <c r="D18">
-        <v>7.049330911479633</v>
+        <v>5.007811319404735</v>
       </c>
       <c r="E18">
-        <v>9.849947420648746</v>
+        <v>9.505421372260523</v>
       </c>
       <c r="F18">
-        <v>25.99746151450891</v>
+        <v>36.95076770502644</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.693550400142374</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.685461142726342</v>
       </c>
       <c r="J18">
-        <v>6.13950798935864</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>12.79913303918824</v>
+        <v>23.74709680923153</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12.28575894383745</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.646858796023622</v>
       </c>
       <c r="O18">
-        <v>18.46864601550891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.38310824529433</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.72811156440937</v>
+        <v>25.19373605032065</v>
       </c>
       <c r="C19">
-        <v>7.445144951735405</v>
+        <v>20.79710659098479</v>
       </c>
       <c r="D19">
-        <v>7.027219473381203</v>
+        <v>5.2999290124529</v>
       </c>
       <c r="E19">
-        <v>9.829664686795104</v>
+        <v>8.783962145769136</v>
       </c>
       <c r="F19">
-        <v>25.96961731375828</v>
+        <v>40.29445119211683</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.258659089903861</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.655580620352482</v>
       </c>
       <c r="J19">
-        <v>6.139036512663639</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>12.75032781469011</v>
+        <v>26.35339662434681</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12.24670432152147</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.245673321771199</v>
       </c>
       <c r="O19">
-        <v>18.4645176168823</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.88740434977444</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.00904055203899</v>
+        <v>25.51534299008268</v>
       </c>
       <c r="C20">
-        <v>7.547543240815656</v>
+        <v>20.64469984824018</v>
       </c>
       <c r="D20">
-        <v>7.126372721932041</v>
+        <v>5.972418875758848</v>
       </c>
       <c r="E20">
-        <v>9.920998877517306</v>
+        <v>8.306204175177486</v>
       </c>
       <c r="F20">
-        <v>26.09637434490296</v>
+        <v>46.13188050659508</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1.721505268044153</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.568014225009818</v>
       </c>
       <c r="J20">
-        <v>6.141359770395359</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>12.96860805255073</v>
+        <v>30.75243990073605</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12.42182380823218</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.403861900161108</v>
       </c>
       <c r="O20">
-        <v>18.48429686220564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.91498925861295</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.92013737600357</v>
+        <v>27.09802186180711</v>
       </c>
       <c r="C21">
-        <v>7.882468828260913</v>
+        <v>21.94017048420615</v>
       </c>
       <c r="D21">
-        <v>7.4531829646081</v>
+        <v>6.11728358678586</v>
       </c>
       <c r="E21">
-        <v>10.22870772337692</v>
+        <v>8.683695244887584</v>
       </c>
       <c r="F21">
-        <v>26.54800889577405</v>
+        <v>48.90804684678633</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1.81623949635038</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.929817482676091</v>
       </c>
       <c r="J21">
-        <v>6.152765115241761</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>13.67842472815877</v>
+        <v>32.30949718256667</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.13896188740829</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.778784789213727</v>
       </c>
       <c r="O21">
-        <v>18.57238521453921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.73207506690388</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.49140302634408</v>
+        <v>28.09942279123413</v>
       </c>
       <c r="C22">
-        <v>8.094476286201981</v>
+        <v>22.76553312785897</v>
       </c>
       <c r="D22">
-        <v>7.661844257307858</v>
+        <v>6.19147638447533</v>
       </c>
       <c r="E22">
-        <v>10.43020443757929</v>
+        <v>8.944712499226513</v>
       </c>
       <c r="F22">
-        <v>26.8626955360948</v>
+        <v>50.54895869365748</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.06786443001715</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.156810765150596</v>
       </c>
       <c r="J22">
-        <v>6.162990766055741</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>14.12481440733749</v>
+        <v>33.20838083341143</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.59762657468212</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.96411067305424</v>
       </c>
       <c r="O22">
-        <v>18.64682324302335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.2117733468767</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.18870473377095</v>
+        <v>27.57010160395031</v>
       </c>
       <c r="C23">
-        <v>7.981958788577362</v>
+        <v>22.30728979456245</v>
       </c>
       <c r="D23">
-        <v>7.550940809954184</v>
+        <v>6.169632502704879</v>
       </c>
       <c r="E23">
-        <v>10.32264022449443</v>
+        <v>8.807246368148732</v>
       </c>
       <c r="F23">
-        <v>26.69293543148251</v>
+        <v>49.78710984062479</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1.935914769623626</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.032882930177639</v>
       </c>
       <c r="J23">
-        <v>6.157273758439064</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>13.88816601568385</v>
+        <v>32.82224266271059</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.35451679766117</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.865257610846545</v>
       </c>
       <c r="O23">
-        <v>18.60550323285314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.95615388809718</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.99373722677275</v>
+        <v>25.47887875696943</v>
       </c>
       <c r="C24">
-        <v>7.541954053408465</v>
+        <v>20.54931954932387</v>
       </c>
       <c r="D24">
-        <v>7.120950926173694</v>
+        <v>6.054492880146686</v>
       </c>
       <c r="E24">
-        <v>9.915979457204223</v>
+        <v>8.280071445028337</v>
       </c>
       <c r="F24">
-        <v>26.08931746218779</v>
+        <v>46.64402920041801</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1.697230807805217</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.563955205607898</v>
       </c>
       <c r="J24">
-        <v>6.141218869891549</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>12.95670992596658</v>
+        <v>31.17797161384518</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12.41224883394047</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.483099131800437</v>
       </c>
       <c r="O24">
-        <v>18.4831311959112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.95835059832139</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.59935119558688</v>
+        <v>23.03897295165453</v>
       </c>
       <c r="C25">
-        <v>7.038431073072192</v>
+        <v>18.53140363162212</v>
       </c>
       <c r="D25">
-        <v>6.637448332182267</v>
+        <v>5.922492162604716</v>
       </c>
       <c r="E25">
-        <v>9.480582937764794</v>
+        <v>7.700262337544577</v>
       </c>
       <c r="F25">
-        <v>25.51980405708126</v>
+        <v>43.08333850467802</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.274141436253112</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.952674922664904</v>
       </c>
       <c r="J25">
-        <v>6.135230061751907</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>11.87651845680901</v>
+        <v>29.33545578334619</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>11.55798247778348</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.053370188411448</v>
       </c>
       <c r="O25">
-        <v>18.41872104384413</v>
+        <v>13.81654011009105</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.08285944635006</v>
+        <v>21.14053154453335</v>
       </c>
       <c r="C2">
-        <v>16.87337120984945</v>
+        <v>18.07367132848895</v>
       </c>
       <c r="D2">
-        <v>5.863376067288486</v>
+        <v>4.988836911955508</v>
       </c>
       <c r="E2">
-        <v>7.265045197847825</v>
+        <v>7.381122268948349</v>
       </c>
       <c r="F2">
-        <v>40.63735804270669</v>
+        <v>34.29379428008637</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.708242830703563</v>
+        <v>2.544408659919595</v>
       </c>
       <c r="I2">
-        <v>3.333389200643039</v>
+        <v>3.137751750007097</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>28.17670616050981</v>
+        <v>23.00978950163043</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>18.42353013359007</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.8787918547218</v>
       </c>
       <c r="N2">
-        <v>6.721442394155706</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.91809112860055</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.911570944132789</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.96004096677737</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.6686116313537</v>
+        <v>19.72053712274476</v>
       </c>
       <c r="C3">
-        <v>15.71157232657164</v>
+        <v>16.79514783954262</v>
       </c>
       <c r="D3">
-        <v>5.793505540081869</v>
+        <v>4.99339748119484</v>
       </c>
       <c r="E3">
-        <v>6.958609328381479</v>
+        <v>7.092447300472606</v>
       </c>
       <c r="F3">
-        <v>38.72525755872661</v>
+        <v>32.98984577725939</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.015962798562638</v>
+        <v>2.820598722959509</v>
       </c>
       <c r="I3">
-        <v>3.618911945987358</v>
+        <v>3.384957498040097</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>27.21924472629381</v>
+        <v>22.57275258711145</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>18.23449636099501</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.40600277050643</v>
       </c>
       <c r="N3">
-        <v>6.488172736596934</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.27877679626858</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.691425009230706</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.30753704121039</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7843363615446</v>
+        <v>18.79629064341786</v>
       </c>
       <c r="C4">
-        <v>14.96366098444735</v>
+        <v>15.96987041226781</v>
       </c>
       <c r="D4">
-        <v>5.747650614137108</v>
+        <v>4.994451778378776</v>
       </c>
       <c r="E4">
-        <v>6.76551716080965</v>
+        <v>6.910376768418253</v>
       </c>
       <c r="F4">
-        <v>37.50722640067578</v>
+        <v>32.16449210561196</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.21044804910681</v>
+        <v>2.995386169679706</v>
       </c>
       <c r="I4">
-        <v>3.800002331541534</v>
+        <v>3.542267261436738</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>26.61207488281658</v>
+        <v>22.29670604557485</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>18.10625140900263</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.12630155048668</v>
       </c>
       <c r="N4">
-        <v>6.340793334287021</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.87120864049124</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.552668850451429</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.89060079260904</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.41256910318848</v>
+        <v>18.40611359512586</v>
       </c>
       <c r="C5">
-        <v>14.65766154790033</v>
+        <v>15.62975925610766</v>
       </c>
       <c r="D5">
-        <v>5.723389650731857</v>
+        <v>4.992177076712514</v>
       </c>
       <c r="E5">
-        <v>6.685059985507349</v>
+        <v>6.834721723952879</v>
       </c>
       <c r="F5">
-        <v>36.96399763630374</v>
+        <v>31.79347080055572</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.291761480443199</v>
+        <v>3.068483498806474</v>
       </c>
       <c r="I5">
-        <v>3.878133790138532</v>
+        <v>3.610993145079503</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>26.33176360836767</v>
+        <v>22.16121837081325</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>18.03388721083644</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>15.00037910370773</v>
       </c>
       <c r="N5">
-        <v>6.279803922201207</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.70192028194725</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.495299543343055</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.71709547111258</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.35015075251261</v>
+        <v>18.34016768687645</v>
       </c>
       <c r="C6">
-        <v>14.61556792133806</v>
+        <v>15.58050261944647</v>
       </c>
       <c r="D6">
-        <v>5.713419692705445</v>
+        <v>4.989018625155218</v>
       </c>
       <c r="E6">
-        <v>6.671040561740969</v>
+        <v>6.821825054775091</v>
       </c>
       <c r="F6">
-        <v>36.82878726322744</v>
+        <v>31.69634388141851</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.306109333951247</v>
+        <v>3.081345148274918</v>
       </c>
       <c r="I6">
-        <v>3.894825058961651</v>
+        <v>3.626601822268374</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>26.25039239553121</v>
+        <v>22.11282754806993</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>18.00090860178063</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.96144202056387</v>
       </c>
       <c r="N6">
-        <v>6.269716497631864</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.67411919000374</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.485770924847198</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.68847738101164</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.77932629441522</v>
+        <v>18.79011996454797</v>
       </c>
       <c r="C7">
-        <v>14.9841643672794</v>
+        <v>15.98616768631611</v>
       </c>
       <c r="D7">
-        <v>5.731275286372163</v>
+        <v>4.987011080135403</v>
       </c>
       <c r="E7">
-        <v>6.762871102633926</v>
+        <v>6.908684275699742</v>
       </c>
       <c r="F7">
-        <v>37.38065560565129</v>
+        <v>32.06491693008026</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.213588039695213</v>
+        <v>2.998095200553006</v>
       </c>
       <c r="I7">
-        <v>3.810735004097664</v>
+        <v>3.554135881883507</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>26.5149541304275</v>
+        <v>22.22515239035663</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>18.04961127348424</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>15.07471760436264</v>
       </c>
       <c r="N7">
-        <v>6.340250635831655</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.8703275551854</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.552040082072516</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.88940383555384</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.59874314024833</v>
+        <v>20.66049003784392</v>
       </c>
       <c r="C8">
-        <v>16.5096654727471</v>
+        <v>17.66637736264904</v>
       </c>
       <c r="D8">
-        <v>5.81900055760057</v>
+        <v>4.981506122211301</v>
       </c>
       <c r="E8">
-        <v>7.158385282872358</v>
+        <v>7.281783695725537</v>
       </c>
       <c r="F8">
-        <v>39.83825469455645</v>
+        <v>33.73086733966893</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.815845076257866</v>
+        <v>2.640762813310172</v>
       </c>
       <c r="I8">
-        <v>3.443323466030895</v>
+        <v>3.236155141350613</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>27.73193191337886</v>
+        <v>22.77156554623956</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>18.29165261651216</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.64782562449058</v>
       </c>
       <c r="N8">
-        <v>6.642266284371889</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.70251024299698</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.836655283901662</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.73985803735261</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.88780830386277</v>
+        <v>23.91817946223042</v>
       </c>
       <c r="C9">
-        <v>19.19285668647086</v>
+        <v>20.61343602881764</v>
       </c>
       <c r="D9">
-        <v>5.995488739578417</v>
+        <v>4.96889529948582</v>
       </c>
       <c r="E9">
-        <v>7.89992888743723</v>
+        <v>7.977844931997717</v>
       </c>
       <c r="F9">
-        <v>44.48901721610561</v>
+        <v>36.94798650026296</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.074243193605878</v>
+        <v>1.976777102122319</v>
       </c>
       <c r="I9">
-        <v>2.750850098939833</v>
+        <v>2.637097314890818</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>30.11521227138662</v>
+        <v>23.89983096247934</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>18.76239632017066</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.93279121924098</v>
       </c>
       <c r="N9">
-        <v>7.199930257778298</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>14.20789188189037</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.364573905322017</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.27142265374775</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.07656317080558</v>
+        <v>26.08133150110874</v>
       </c>
       <c r="C10">
-        <v>21.06602824397167</v>
+        <v>22.63081135969684</v>
       </c>
       <c r="D10">
-        <v>6.030111977188464</v>
+        <v>4.921614096699193</v>
       </c>
       <c r="E10">
-        <v>8.453328362592636</v>
+        <v>8.51442902739973</v>
       </c>
       <c r="F10">
-        <v>47.14293134933853</v>
+        <v>38.78746727143427</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.591307720166258</v>
+        <v>1.601124418638706</v>
       </c>
       <c r="I10">
-        <v>2.678659829166646</v>
+        <v>2.735326851975497</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>31.33677594088964</v>
+        <v>24.39486519157319</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>18.83538071715914</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.67644371184126</v>
       </c>
       <c r="N10">
-        <v>7.480599946050277</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>15.16017943772594</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.624280852953369</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.23538329089131</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.14583116849153</v>
+        <v>27.14996586255381</v>
       </c>
       <c r="C11">
-        <v>22.34404139114807</v>
+        <v>23.78886158575795</v>
       </c>
       <c r="D11">
-        <v>5.459819665264418</v>
+        <v>4.737668572926905</v>
       </c>
       <c r="E11">
-        <v>9.137731613883687</v>
+        <v>9.312088145966555</v>
       </c>
       <c r="F11">
-        <v>44.08693788952363</v>
+        <v>36.49325281193997</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.638972191417566</v>
+        <v>2.65030714320813</v>
       </c>
       <c r="I11">
-        <v>2.803481159865374</v>
+        <v>2.856944970426814</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>28.48655240952234</v>
+        <v>22.26371470585483</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>17.153174115378</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>16.18429501714035</v>
       </c>
       <c r="N11">
-        <v>6.72772360541242</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.94525125396997</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.850322108519566</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.0133884018193</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.60952532789877</v>
+        <v>27.61770007439246</v>
       </c>
       <c r="C12">
-        <v>23.02194291486975</v>
+        <v>24.33497812627371</v>
       </c>
       <c r="D12">
-        <v>5.099394748305558</v>
+        <v>4.694968217381744</v>
       </c>
       <c r="E12">
-        <v>9.836403500002616</v>
+        <v>10.07161726578237</v>
       </c>
       <c r="F12">
-        <v>41.07427334758281</v>
+        <v>34.2642772958997</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.068237026554513</v>
+        <v>4.050971428794583</v>
       </c>
       <c r="I12">
-        <v>2.817835899372273</v>
+        <v>2.87687158379937</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>25.95521214725693</v>
+        <v>20.46987722712536</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.82364563663015</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.82966891337555</v>
       </c>
       <c r="N12">
-        <v>6.108102095100671</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.55577517100689</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.215376816142395</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.6161292786945</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.6497413583728</v>
+        <v>27.66595425260113</v>
       </c>
       <c r="C13">
-        <v>23.32903785800183</v>
+        <v>24.48431483077146</v>
       </c>
       <c r="D13">
-        <v>4.876699143466896</v>
+        <v>4.743853702277319</v>
       </c>
       <c r="E13">
-        <v>10.55446311718104</v>
+        <v>10.81976324568614</v>
       </c>
       <c r="F13">
-        <v>37.67703197795463</v>
+        <v>31.76728796516605</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.525609776921292</v>
+        <v>5.508231694013755</v>
       </c>
       <c r="I13">
-        <v>2.751293161975659</v>
+        <v>2.825064485824386</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>23.3591991998051</v>
+        <v>18.7200464476162</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.59769062598086</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.41480051169708</v>
       </c>
       <c r="N13">
-        <v>5.570940524861693</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>14.00003195248414</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.66722324087339</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.05077209592155</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.48787276035001</v>
+        <v>27.51126440729771</v>
       </c>
       <c r="C14">
-        <v>23.38885242201412</v>
+        <v>24.41769624421209</v>
       </c>
       <c r="D14">
-        <v>4.808674904959866</v>
+        <v>4.827692964772986</v>
       </c>
       <c r="E14">
-        <v>11.08120801051352</v>
+        <v>11.35179025950894</v>
       </c>
       <c r="F14">
-        <v>35.05913662214911</v>
+        <v>29.84874658066071</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.553719574214438</v>
+        <v>6.534988172405454</v>
       </c>
       <c r="I14">
-        <v>2.670120176348087</v>
+        <v>2.758357348965712</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>21.49545289620458</v>
+        <v>17.51110051307588</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.77981317781444</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.3925820978009</v>
       </c>
       <c r="N14">
-        <v>5.262529342807661</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.52934233343475</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.353510666773214</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.57210720198694</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.35656803858381</v>
+        <v>27.38263738969044</v>
       </c>
       <c r="C15">
-        <v>23.33152420327006</v>
+        <v>24.32262612171132</v>
       </c>
       <c r="D15">
-        <v>4.80612291269847</v>
+        <v>4.855598161654672</v>
       </c>
       <c r="E15">
-        <v>11.18919117698694</v>
+        <v>11.45885969411156</v>
       </c>
       <c r="F15">
-        <v>34.29717301475931</v>
+        <v>29.29188893581041</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.794540970625869</v>
+        <v>6.774745407403245</v>
       </c>
       <c r="I15">
-        <v>2.633503900099915</v>
+        <v>2.728004585604099</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>20.99960825036129</v>
+        <v>17.20553125299375</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.58135673663801</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.1189510368199</v>
       </c>
       <c r="N15">
-        <v>5.19509487200414</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.3793573242802</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.286211328891674</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.41958579086795</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.46363082616929</v>
+        <v>26.49862155623929</v>
       </c>
       <c r="C16">
-        <v>22.5479581353078</v>
+        <v>23.49446624471879</v>
       </c>
       <c r="D16">
-        <v>4.831940978129302</v>
+        <v>4.84856170325449</v>
       </c>
       <c r="E16">
-        <v>10.84836936376026</v>
+        <v>11.11576537894548</v>
       </c>
       <c r="F16">
-        <v>33.58236665277217</v>
+        <v>28.80838483039025</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.616358878781763</v>
+        <v>6.587918796443145</v>
       </c>
       <c r="I16">
-        <v>2.561916054653458</v>
+        <v>2.571204174360915</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>20.87003132886328</v>
+        <v>17.27094610186344</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.69683120157275</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.04537754179874</v>
       </c>
       <c r="N16">
-        <v>5.164887003027156</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>13.06455608995653</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.270013151598167</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.1002422059727</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.85228311833053</v>
+        <v>25.89040432032379</v>
       </c>
       <c r="C17">
-        <v>21.89850931496711</v>
+        <v>22.88191894403187</v>
       </c>
       <c r="D17">
-        <v>4.872313282260611</v>
+        <v>4.794184974857501</v>
       </c>
       <c r="E17">
-        <v>10.27500438774569</v>
+        <v>10.54124487984519</v>
       </c>
       <c r="F17">
-        <v>34.47843788670191</v>
+        <v>29.49637365070079</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.909431013139847</v>
+        <v>5.872794288596816</v>
       </c>
       <c r="I17">
-        <v>2.664213363594558</v>
+        <v>2.551695171943246</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>21.76542198687891</v>
+        <v>17.95894622345272</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.22797284036133</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.52624527407972</v>
       </c>
       <c r="N17">
-        <v>5.292418229147337</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>13.08074851765835</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.410548967018358</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.11750502003858</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.42817293534167</v>
+        <v>25.46465007673949</v>
       </c>
       <c r="C18">
-        <v>21.2848110940229</v>
+        <v>22.38176163904059</v>
       </c>
       <c r="D18">
-        <v>5.007811319404735</v>
+        <v>4.735269235536819</v>
       </c>
       <c r="E18">
-        <v>9.505421372260523</v>
+        <v>9.759990146688935</v>
       </c>
       <c r="F18">
-        <v>36.95076770502644</v>
+        <v>31.33610637424128</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.693550400142374</v>
+        <v>4.647301630784926</v>
       </c>
       <c r="I18">
-        <v>2.685461142726342</v>
+        <v>2.571788814199932</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>23.74709680923153</v>
+        <v>19.3435222041906</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.2546712006231</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.58267543914124</v>
       </c>
       <c r="N18">
-        <v>5.646858796023622</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.38310824529433</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.777628813566104</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.42649424021742</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.19373605032065</v>
+        <v>25.22449275852181</v>
       </c>
       <c r="C19">
-        <v>20.79710659098479</v>
+        <v>22.04954538890131</v>
       </c>
       <c r="D19">
-        <v>5.2999290124529</v>
+        <v>4.745423715916614</v>
       </c>
       <c r="E19">
-        <v>8.783962145769136</v>
+        <v>8.994867567329408</v>
       </c>
       <c r="F19">
-        <v>40.29445119211683</v>
+        <v>33.79467678523012</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.258659089903861</v>
+        <v>3.200151567013073</v>
       </c>
       <c r="I19">
-        <v>2.655580620352482</v>
+        <v>2.554139477541062</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>26.35339662434681</v>
+        <v>21.1245463854176</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.56662759276422</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.96314124453205</v>
       </c>
       <c r="N19">
-        <v>6.245673321771199</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.88740434977444</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.387050713669838</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.9409030895255</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.51534299008268</v>
+        <v>25.52776964415293</v>
       </c>
       <c r="C20">
-        <v>20.64469984824018</v>
+        <v>22.16372219165293</v>
       </c>
       <c r="D20">
-        <v>5.972418875758848</v>
+        <v>4.915041256378036</v>
       </c>
       <c r="E20">
-        <v>8.306204175177486</v>
+        <v>8.37548362078476</v>
       </c>
       <c r="F20">
-        <v>46.13188050659508</v>
+        <v>38.05162136139016</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.721505268044153</v>
+        <v>1.662730720408628</v>
       </c>
       <c r="I20">
-        <v>2.568014225009818</v>
+        <v>2.645207858102005</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>30.75243990073605</v>
+        <v>24.06274724412944</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>18.6681248735049</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.32227482876518</v>
       </c>
       <c r="N20">
-        <v>7.403861900161108</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.91498925861295</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.552710303022057</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.98684523717904</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.09802186180711</v>
+        <v>27.08710525314305</v>
       </c>
       <c r="C21">
-        <v>21.94017048420615</v>
+        <v>23.59488135993836</v>
       </c>
       <c r="D21">
-        <v>6.11728358678586</v>
+        <v>4.920442765533383</v>
       </c>
       <c r="E21">
-        <v>8.683695244887584</v>
+        <v>8.712315334583202</v>
       </c>
       <c r="F21">
-        <v>48.90804684678633</v>
+        <v>40.02241877764898</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.81623949635038</v>
+        <v>1.829743854533177</v>
       </c>
       <c r="I21">
-        <v>2.929817482676091</v>
+        <v>2.955717423702874</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>32.30949718256667</v>
+        <v>24.88714860971779</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>19.04590175713168</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>18.24945747780643</v>
       </c>
       <c r="N21">
-        <v>7.778784789213727</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.73207506690388</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.913921512659678</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.81316815416866</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.09942279123413</v>
+        <v>28.07260561357964</v>
       </c>
       <c r="C22">
-        <v>22.76553312785897</v>
+        <v>24.49618629162379</v>
       </c>
       <c r="D22">
-        <v>6.19147638447533</v>
+        <v>4.916616735201246</v>
       </c>
       <c r="E22">
-        <v>8.944712499226513</v>
+        <v>8.953607065541018</v>
       </c>
       <c r="F22">
-        <v>50.54895869365748</v>
+        <v>41.19789077020732</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.06786443001715</v>
+        <v>2.053110171774983</v>
       </c>
       <c r="I22">
-        <v>3.156810765150596</v>
+        <v>3.148561025702934</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>33.20838083341143</v>
+        <v>25.35899480579121</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>19.23803495372491</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.81090821742522</v>
       </c>
       <c r="N22">
-        <v>7.96411067305424</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.2117733468767</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.089999884922792</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.2972571275958</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.57010160395031</v>
+        <v>27.55161059033164</v>
       </c>
       <c r="C23">
-        <v>22.30728979456245</v>
+        <v>24.00088514829999</v>
       </c>
       <c r="D23">
-        <v>6.169632502704879</v>
+        <v>4.925692855732503</v>
       </c>
       <c r="E23">
-        <v>8.807246368148732</v>
+        <v>8.825570514535181</v>
       </c>
       <c r="F23">
-        <v>49.78710984062479</v>
+        <v>40.66064327755836</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.935914769623626</v>
+        <v>1.93582091180099</v>
       </c>
       <c r="I23">
-        <v>3.032882930177639</v>
+        <v>3.041058647580892</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839352</v>
       </c>
       <c r="K23">
-        <v>32.82224266271059</v>
+        <v>25.17805020049615</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>19.1875567868085</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>18.56574147097653</v>
       </c>
       <c r="N23">
-        <v>7.865257610846545</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.95615388809718</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.996126213437946</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.03960506101153</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.47887875696943</v>
+        <v>25.49026303541752</v>
       </c>
       <c r="C24">
-        <v>20.54931954932387</v>
+        <v>22.0874082698015</v>
       </c>
       <c r="D24">
-        <v>6.054492880146686</v>
+        <v>4.946015597820068</v>
       </c>
       <c r="E24">
-        <v>8.280071445028337</v>
+        <v>8.334753960093726</v>
       </c>
       <c r="F24">
-        <v>46.64402920041801</v>
+        <v>38.43976730993788</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.697230807805217</v>
+        <v>1.640011565122997</v>
       </c>
       <c r="I24">
-        <v>2.563955205607898</v>
+        <v>2.637046675812769</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>31.17797161384518</v>
+        <v>24.37138737850258</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>18.89968261553023</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.55599425738122</v>
       </c>
       <c r="N24">
-        <v>7.483099131800437</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.95835059832139</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.633184947336782</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.03146884202445</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.03897295165453</v>
+        <v>23.07876997575341</v>
       </c>
       <c r="C25">
-        <v>18.53140363162212</v>
+        <v>19.88001697524312</v>
       </c>
       <c r="D25">
-        <v>5.922492162604716</v>
+        <v>4.962173930708121</v>
       </c>
       <c r="E25">
-        <v>7.700262337544577</v>
+        <v>7.792285548088082</v>
       </c>
       <c r="F25">
-        <v>43.08333850467802</v>
+        <v>35.95068067499397</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.274141436253112</v>
+        <v>2.155215095933139</v>
       </c>
       <c r="I25">
-        <v>2.952674922664904</v>
+        <v>2.81636133751067</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>29.33545578334619</v>
+        <v>23.48537580501727</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>18.55766846966842</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.49083880506209</v>
       </c>
       <c r="N25">
-        <v>7.053370188411448</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.81654011009105</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.225496948656911</v>
       </c>
       <c r="Q25">
+        <v>13.87368080937713</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
